--- a/Train_time_and_accuracy_results.xlsx
+++ b/Train_time_and_accuracy_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhasud\Documents\GitHub\Optimized-One-vs-One-Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759D23DC-0B7E-4C19-B579-3E56CBF006CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAECB73E-B61A-4F24-8A60-92CF4F2DD476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4710" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -701,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,6 +710,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,13 +1000,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F665E9A-4628-4C41-BB04-5B4AB8D92FFC}">
   <dimension ref="A1:P974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="F936" sqref="F936:F974"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="5" customWidth="1"/>
     <col min="2" max="3" width="13.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
@@ -1009,7 +1015,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1033,7 +1039,7 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
@@ -1054,7 +1060,7 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -1075,7 +1081,7 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -1096,7 +1102,7 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -1117,7 +1123,7 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1">
@@ -1138,7 +1144,7 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1">
@@ -1159,7 +1165,7 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1">
@@ -1180,7 +1186,7 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1">
@@ -1201,7 +1207,7 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1">
@@ -1222,7 +1228,7 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1">
@@ -1243,7 +1249,7 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1">
@@ -1264,7 +1270,7 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1">
@@ -1285,7 +1291,7 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="1">
@@ -1306,7 +1312,7 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1">
@@ -1327,7 +1333,7 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="1">
@@ -1348,7 +1354,7 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="1">
@@ -1369,7 +1375,7 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="1">
@@ -1390,7 +1396,7 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="1">
@@ -1406,12 +1412,12 @@
         <v>11</v>
       </c>
       <c r="F19" s="1">
-        <v>85.56</v>
+        <v>85</v>
       </c>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="1">
@@ -1432,7 +1438,7 @@
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="1">
@@ -1453,7 +1459,7 @@
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="1">
@@ -1474,7 +1480,7 @@
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1">
@@ -1495,7 +1501,7 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="1">
@@ -1516,7 +1522,7 @@
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="1">
@@ -1537,7 +1543,7 @@
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="1">
@@ -1558,7 +1564,7 @@
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="1">
@@ -1579,7 +1585,7 @@
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="1">
@@ -1600,7 +1606,7 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="1">
@@ -1621,7 +1627,7 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="1">
@@ -1642,7 +1648,7 @@
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="1">
@@ -1663,7 +1669,7 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="1">
@@ -1684,7 +1690,7 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="1">
@@ -1705,7 +1711,7 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="1">
@@ -1726,7 +1732,7 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="1">
@@ -1747,7 +1753,7 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="1">
@@ -1768,7 +1774,7 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="1">
@@ -1789,7 +1795,7 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="1">
@@ -1810,7 +1816,7 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="1">
@@ -1831,7 +1837,7 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="1">
@@ -1852,7 +1858,7 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="1">
@@ -1873,7 +1879,7 @@
       <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="1">
@@ -1894,7 +1900,7 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="1">
@@ -1915,7 +1921,7 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="1">
@@ -1936,7 +1942,7 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="1">
@@ -1957,7 +1963,7 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="1">
@@ -1978,7 +1984,7 @@
       <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="1">
@@ -1999,7 +2005,7 @@
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="1">
@@ -2020,7 +2026,7 @@
       <c r="M48" s="3"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="1">
@@ -2041,7 +2047,7 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="1">
@@ -2062,7 +2068,7 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B51" s="1">
@@ -2083,7 +2089,7 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="1">
@@ -2104,7 +2110,7 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B53" s="1">
@@ -2125,7 +2131,7 @@
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="1">
@@ -2146,7 +2152,7 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="1">
@@ -2167,7 +2173,7 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B56" s="1">
@@ -2188,7 +2194,7 @@
       <c r="M56" s="3"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B57" s="1">
@@ -2209,7 +2215,7 @@
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B58" s="1">
@@ -2230,7 +2236,7 @@
       <c r="M58" s="3"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B59" s="1">
@@ -2251,7 +2257,7 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B60" s="1">
@@ -2272,7 +2278,7 @@
       <c r="M60" s="3"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="1">
@@ -2293,7 +2299,7 @@
       <c r="M61" s="3"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B62" s="1">
@@ -2314,7 +2320,7 @@
       <c r="M62" s="3"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B63" s="1">
@@ -2335,7 +2341,7 @@
       <c r="M63" s="3"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B64" s="1">
@@ -2356,7 +2362,7 @@
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="1">
@@ -2377,7 +2383,7 @@
       <c r="M65" s="3"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B66" s="1">
@@ -2398,7 +2404,7 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="1">
@@ -2419,7 +2425,7 @@
       <c r="M67" s="3"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B68" s="1">
@@ -2440,7 +2446,7 @@
       <c r="M68" s="3"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B69" s="1">
@@ -2461,7 +2467,7 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B70" s="1">
@@ -2482,7 +2488,7 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B71" s="1">
@@ -2503,7 +2509,7 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B72" s="1">
@@ -2524,7 +2530,7 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="1">
@@ -2545,7 +2551,7 @@
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B74" s="1">
@@ -2566,7 +2572,7 @@
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B75" s="1">
@@ -2587,7 +2593,7 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B76" s="1">
@@ -2608,7 +2614,7 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B77" s="1">
@@ -2629,7 +2635,7 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="1">
@@ -2650,7 +2656,7 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="1">
@@ -2671,7 +2677,7 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B80" s="1">
@@ -2692,7 +2698,7 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B81" s="1">
@@ -2713,7 +2719,7 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B82" s="1">
@@ -2734,7 +2740,7 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B83" s="1">
@@ -2755,7 +2761,7 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B84" s="1">
@@ -2776,7 +2782,7 @@
       <c r="M84" s="3"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B85" s="1">
@@ -2797,7 +2803,7 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B86" s="1">
@@ -2818,7 +2824,7 @@
       <c r="M86" s="3"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B87" s="1">
@@ -2839,7 +2845,7 @@
       <c r="M87" s="3"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B88" s="1">
@@ -2860,7 +2866,7 @@
       <c r="M88" s="3"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B89" s="1">
@@ -2881,7 +2887,7 @@
       <c r="M89" s="3"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B90" s="1">
@@ -2902,7 +2908,7 @@
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="1">
@@ -2923,7 +2929,7 @@
       <c r="M91" s="3"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B92" s="1">
@@ -2944,7 +2950,7 @@
       <c r="M92" s="3"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B93" s="1">
@@ -2965,7 +2971,7 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B94" s="1">
@@ -2986,7 +2992,7 @@
       <c r="M94" s="3"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B95" s="1">
@@ -3007,7 +3013,7 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B96" s="1">
@@ -3028,7 +3034,7 @@
       <c r="M96" s="3"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B97" s="1">
@@ -3049,7 +3055,7 @@
       <c r="M97" s="3"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B98" s="1">
@@ -3070,7 +3076,7 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B99" s="1">
@@ -3091,7 +3097,7 @@
       <c r="M99" s="3"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B100" s="1">
@@ -3112,7 +3118,7 @@
       <c r="M100" s="3"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B101" s="1">
@@ -3133,7 +3139,7 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B102" s="1">
@@ -3154,7 +3160,7 @@
       <c r="M102" s="3"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B103" s="1">
@@ -3175,7 +3181,7 @@
       <c r="M103" s="3"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B104" s="1">
@@ -3196,7 +3202,7 @@
       <c r="M104" s="3"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B105" s="1">
@@ -3217,7 +3223,7 @@
       <c r="M105" s="3"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B106" s="1">
@@ -3238,7 +3244,7 @@
       <c r="M106" s="3"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B107" s="1">
@@ -3259,7 +3265,7 @@
       <c r="M107" s="3"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B108" s="1">
@@ -3280,7 +3286,7 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B109" s="1">
@@ -3301,7 +3307,7 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B110" s="1">
@@ -3322,7 +3328,7 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B111" s="1">
@@ -3343,7 +3349,7 @@
       <c r="M111" s="3"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B112" s="1">
@@ -3364,7 +3370,7 @@
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B113" s="1">
@@ -3385,7 +3391,7 @@
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B114" s="1">
@@ -3406,7 +3412,7 @@
       <c r="M114" s="3"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B115" s="1">
@@ -3427,7 +3433,7 @@
       <c r="M115" s="3"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B116" s="1">
@@ -3448,7 +3454,7 @@
       <c r="M116" s="3"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B117" s="1">
@@ -3469,7 +3475,7 @@
       <c r="M117" s="3"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B118" s="1">
@@ -3490,7 +3496,7 @@
       <c r="M118" s="3"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B119" s="1">
@@ -3511,7 +3517,7 @@
       <c r="M119" s="3"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B120" s="1">
@@ -3532,7 +3538,7 @@
       <c r="M120" s="3"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B121" s="1">
@@ -3553,7 +3559,7 @@
       <c r="M121" s="3"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B122" s="1">
@@ -3574,7 +3580,7 @@
       <c r="M122" s="3"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B123" s="1">
@@ -3595,7 +3601,7 @@
       <c r="M123" s="3"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B124" s="1">
@@ -3616,7 +3622,7 @@
       <c r="M124" s="3"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B125" s="1">
@@ -3637,7 +3643,7 @@
       <c r="M125" s="3"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B126" s="1">
@@ -3658,7 +3664,7 @@
       <c r="M126" s="3"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B127" s="1">
@@ -3679,7 +3685,7 @@
       <c r="M127" s="3"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B128" s="1">
@@ -3700,7 +3706,7 @@
       <c r="M128" s="3"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B129" s="1">
@@ -3721,7 +3727,7 @@
       <c r="M129" s="3"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B130" s="1">
@@ -3742,7 +3748,7 @@
       <c r="M130" s="3"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B131" s="1">
@@ -3763,7 +3769,7 @@
       <c r="M131" s="3"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B132" s="1">
@@ -3784,7 +3790,7 @@
       <c r="M132" s="3"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B133" s="1">
@@ -3805,7 +3811,7 @@
       <c r="M133" s="3"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B134" s="1">
@@ -3826,7 +3832,7 @@
       <c r="M134" s="3"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B135" s="1">
@@ -3847,7 +3853,7 @@
       <c r="M135" s="3"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B136" s="1">
@@ -3868,7 +3874,7 @@
       <c r="M136" s="3"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B137" s="1">
@@ -3889,7 +3895,7 @@
       <c r="M137" s="3"/>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B138" s="1">
@@ -3910,7 +3916,7 @@
       <c r="M138" s="3"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B139" s="1">
@@ -3931,7 +3937,7 @@
       <c r="M139" s="3"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B140" s="1">
@@ -3952,7 +3958,7 @@
       <c r="M140" s="3"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B141" s="1">
@@ -3973,7 +3979,7 @@
       <c r="M141" s="3"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B142" s="1">
@@ -3994,7 +4000,7 @@
       <c r="M142" s="3"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B143" s="1">
@@ -4015,7 +4021,7 @@
       <c r="M143" s="3"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B144" s="1">
@@ -4036,7 +4042,7 @@
       <c r="M144" s="3"/>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B145" s="1">
@@ -4057,7 +4063,7 @@
       <c r="M145" s="3"/>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B146" s="1">
@@ -4078,7 +4084,7 @@
       <c r="M146" s="3"/>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B147" s="1">
@@ -4099,7 +4105,7 @@
       <c r="M147" s="3"/>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B148" s="1">
@@ -4120,7 +4126,7 @@
       <c r="M148" s="3"/>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B149" s="1">
@@ -4141,7 +4147,7 @@
       <c r="M149" s="3"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B150" s="1">
@@ -4162,7 +4168,7 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B151" s="1">
@@ -4183,7 +4189,7 @@
       <c r="M151" s="3"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B152" s="1">
@@ -4204,7 +4210,7 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B153" s="1">
@@ -4225,7 +4231,7 @@
       <c r="M153" s="3"/>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B154" s="1">
@@ -4246,7 +4252,7 @@
       <c r="M154" s="3"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B155" s="1">
@@ -4267,7 +4273,7 @@
       <c r="M155" s="3"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B156" s="1">
@@ -4288,7 +4294,7 @@
       <c r="M156" s="3"/>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B157" s="1">
@@ -4309,7 +4315,7 @@
       <c r="M157" s="3"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B158" s="1">
@@ -4330,7 +4336,7 @@
       <c r="M158" s="3"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B159" s="1">
@@ -4351,7 +4357,7 @@
       <c r="M159" s="3"/>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B160" s="1">
@@ -4372,7 +4378,7 @@
       <c r="M160" s="3"/>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B161" s="1">
@@ -4393,7 +4399,7 @@
       <c r="M161" s="3"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B162" s="1">
@@ -4414,7 +4420,7 @@
       <c r="M162" s="3"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B163" s="1">
@@ -4435,7 +4441,7 @@
       <c r="M163" s="3"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B164" s="1">
@@ -4456,7 +4462,7 @@
       <c r="M164" s="3"/>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B165" s="1">
@@ -4477,7 +4483,7 @@
       <c r="M165" s="3"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B166" s="1">
@@ -4498,7 +4504,7 @@
       <c r="M166" s="3"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B167" s="1">
@@ -4519,7 +4525,7 @@
       <c r="M167" s="3"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B168" s="1">
@@ -4540,7 +4546,7 @@
       <c r="M168" s="3"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B169" s="1">
@@ -4561,7 +4567,7 @@
       <c r="M169" s="3"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B170" s="1">
@@ -4582,7 +4588,7 @@
       <c r="M170" s="3"/>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B171" s="1">
@@ -4603,7 +4609,7 @@
       <c r="M171" s="3"/>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B172" s="1">
@@ -4624,7 +4630,7 @@
       <c r="M172" s="3"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B173" s="1">
@@ -4645,7 +4651,7 @@
       <c r="M173" s="3"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B174" s="1">
@@ -4666,7 +4672,7 @@
       <c r="M174" s="3"/>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B175" s="1">
@@ -4687,7 +4693,7 @@
       <c r="M175" s="3"/>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B176" s="1">
@@ -4708,7 +4714,7 @@
       <c r="M176" s="3"/>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B177" s="1">
@@ -4729,7 +4735,7 @@
       <c r="M177" s="3"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B178" s="1">
@@ -4750,7 +4756,7 @@
       <c r="M178" s="3"/>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B179" s="1">
@@ -4771,7 +4777,7 @@
       <c r="M179" s="3"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B180" s="1">
@@ -4792,7 +4798,7 @@
       <c r="M180" s="3"/>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B181" s="1">
@@ -4813,7 +4819,7 @@
       <c r="M181" s="3"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B182" s="1">
@@ -4834,7 +4840,7 @@
       <c r="M182" s="3"/>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B183" s="1">
@@ -4855,7 +4861,7 @@
       <c r="M183" s="3"/>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B184" s="1">
@@ -4876,7 +4882,7 @@
       <c r="M184" s="3"/>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B185" s="1">
@@ -4897,7 +4903,7 @@
       <c r="M185" s="3"/>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B186" s="1">
@@ -4918,7 +4924,7 @@
       <c r="M186" s="3"/>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B187" s="1">
@@ -4939,7 +4945,7 @@
       <c r="M187" s="3"/>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B188" s="1">
@@ -4960,7 +4966,7 @@
       <c r="M188" s="3"/>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B189" s="1">
@@ -4981,7 +4987,7 @@
       <c r="M189" s="3"/>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B190" s="1">
@@ -5002,7 +5008,7 @@
       <c r="M190" s="3"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B191" s="1">
@@ -5023,7 +5029,7 @@
       <c r="M191" s="3"/>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B192" s="1">
@@ -5044,7 +5050,7 @@
       <c r="M192" s="3"/>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B193" s="1">
@@ -5065,7 +5071,7 @@
       <c r="M193" s="3"/>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B194" s="1">
@@ -5086,7 +5092,7 @@
       <c r="M194" s="3"/>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B195" s="1">
@@ -5107,7 +5113,7 @@
       <c r="M195" s="3"/>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B196" s="1">
@@ -5128,7 +5134,7 @@
       <c r="M196" s="3"/>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B197" s="1">
@@ -5149,7 +5155,7 @@
       <c r="M197" s="3"/>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B198" s="1">
@@ -5170,7 +5176,7 @@
       <c r="M198" s="3"/>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B199" s="1">
@@ -5191,7 +5197,7 @@
       <c r="M199" s="3"/>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B200" s="1">
@@ -5212,7 +5218,7 @@
       <c r="M200" s="3"/>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B201" s="1">
@@ -5233,7 +5239,7 @@
       <c r="M201" s="3"/>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B202" s="1">
@@ -5254,7 +5260,7 @@
       <c r="M202" s="3"/>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B203" s="1">
@@ -5275,7 +5281,7 @@
       <c r="M203" s="3"/>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B204" s="1">
@@ -5296,7 +5302,7 @@
       <c r="M204" s="3"/>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B205" s="1">
@@ -5317,7 +5323,7 @@
       <c r="M205" s="3"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B206" s="1">
@@ -5338,7 +5344,7 @@
       <c r="M206" s="3"/>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B207" s="1">
@@ -5359,7 +5365,7 @@
       <c r="M207" s="3"/>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B208" s="1">
@@ -5380,7 +5386,7 @@
       <c r="M208" s="3"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B209" s="1">
@@ -5401,7 +5407,7 @@
       <c r="M209" s="3"/>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B210" s="1">
@@ -5422,7 +5428,7 @@
       <c r="M210" s="3"/>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B211" s="1">
@@ -5443,7 +5449,7 @@
       <c r="M211" s="3"/>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B212" s="1">
@@ -5464,7 +5470,7 @@
       <c r="M212" s="3"/>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B213" s="1">
@@ -5485,7 +5491,7 @@
       <c r="M213" s="3"/>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B214" s="1">
@@ -5506,7 +5512,7 @@
       <c r="M214" s="3"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B215" s="1">
@@ -5527,7 +5533,7 @@
       <c r="M215" s="3"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B216" s="1">
@@ -5548,7 +5554,7 @@
       <c r="M216" s="3"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B217" s="1">
@@ -5569,7 +5575,7 @@
       <c r="M217" s="3"/>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B218" s="1">
@@ -5590,7 +5596,7 @@
       <c r="M218" s="3"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B219" s="1">
@@ -5611,7 +5617,7 @@
       <c r="M219" s="3"/>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B220" s="1">
@@ -5632,7 +5638,7 @@
       <c r="M220" s="3"/>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B221" s="1">
@@ -5653,7 +5659,7 @@
       <c r="M221" s="3"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B222" s="1">
@@ -5674,7 +5680,7 @@
       <c r="M222" s="3"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B223" s="1">
@@ -5695,7 +5701,7 @@
       <c r="M223" s="3"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B224" s="1">
@@ -5716,7 +5722,7 @@
       <c r="M224" s="3"/>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B225" s="1">
@@ -5737,7 +5743,7 @@
       <c r="M225" s="3"/>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B226" s="1">
@@ -5758,7 +5764,7 @@
       <c r="M226" s="3"/>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B227" s="1">
@@ -5779,7 +5785,7 @@
       <c r="M227" s="3"/>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B228" s="1">
@@ -5800,7 +5806,7 @@
       <c r="M228" s="3"/>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B229" s="1">
@@ -5821,7 +5827,7 @@
       <c r="M229" s="3"/>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B230" s="1">
@@ -5842,7 +5848,7 @@
       <c r="M230" s="3"/>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B231" s="1">
@@ -5863,7 +5869,7 @@
       <c r="M231" s="3"/>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B232" s="1">
@@ -5884,7 +5890,7 @@
       <c r="M232" s="3"/>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B233" s="1">
@@ -5905,7 +5911,7 @@
       <c r="M233" s="3"/>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B234" s="1">
@@ -5926,7 +5932,7 @@
       <c r="M234" s="3"/>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B235" s="1">
@@ -5947,7 +5953,7 @@
       <c r="M235" s="3"/>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B236" s="1">
@@ -5968,7 +5974,7 @@
       <c r="M236" s="3"/>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B237" s="1">
@@ -5989,7 +5995,7 @@
       <c r="M237" s="3"/>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B238" s="1">
@@ -6010,7 +6016,7 @@
       <c r="M238" s="3"/>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B239" s="1">
@@ -6031,7 +6037,7 @@
       <c r="M239" s="3"/>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B240" s="1">
@@ -6052,7 +6058,7 @@
       <c r="M240" s="3"/>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B241" s="1">
@@ -6073,7 +6079,7 @@
       <c r="M241" s="3"/>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B242" s="1">
@@ -6094,7 +6100,7 @@
       <c r="M242" s="3"/>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B243" s="1">
@@ -6115,7 +6121,7 @@
       <c r="M243" s="3"/>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B244" s="1">
@@ -6136,7 +6142,7 @@
       <c r="M244" s="3"/>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B245" s="1">
@@ -6157,7 +6163,7 @@
       <c r="M245" s="3"/>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B246" s="1">
@@ -6178,7 +6184,7 @@
       <c r="M246" s="3"/>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B247" s="1">
@@ -6199,7 +6205,7 @@
       <c r="M247" s="3"/>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B248" s="1">
@@ -6220,7 +6226,7 @@
       <c r="M248" s="3"/>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B249" s="1">
@@ -6241,7 +6247,7 @@
       <c r="M249" s="3"/>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B250" s="1">
@@ -6262,7 +6268,7 @@
       <c r="M250" s="3"/>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B251" s="1">
@@ -6283,7 +6289,7 @@
       <c r="M251" s="3"/>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B252" s="1">
@@ -6304,7 +6310,7 @@
       <c r="M252" s="3"/>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B253" s="1">
@@ -6325,7 +6331,7 @@
       <c r="M253" s="3"/>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B254" s="1">
@@ -6346,7 +6352,7 @@
       <c r="M254" s="3"/>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B255" s="1">
@@ -6367,7 +6373,7 @@
       <c r="M255" s="3"/>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B256" s="1">
@@ -6388,7 +6394,7 @@
       <c r="M256" s="3"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B257" s="1">
@@ -6409,7 +6415,7 @@
       <c r="M257" s="3"/>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B258" s="1">
@@ -6430,7 +6436,7 @@
       <c r="M258" s="3"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B259" s="1">
@@ -6451,7 +6457,7 @@
       <c r="M259" s="3"/>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B260" s="1">
@@ -6472,7 +6478,7 @@
       <c r="M260" s="3"/>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B261" s="1">
@@ -6493,7 +6499,7 @@
       <c r="M261" s="3"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B262" s="1">
@@ -6514,7 +6520,7 @@
       <c r="M262" s="3"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B263" s="1">
@@ -6535,7 +6541,7 @@
       <c r="M263" s="3"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B264" s="1">
@@ -6556,7 +6562,7 @@
       <c r="M264" s="3"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B265" s="1">
@@ -6577,7 +6583,7 @@
       <c r="M265" s="3"/>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B266" s="1">
@@ -6598,7 +6604,7 @@
       <c r="M266" s="3"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B267" s="1">
@@ -6619,7 +6625,7 @@
       <c r="M267" s="3"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B268" s="1">
@@ -6640,7 +6646,7 @@
       <c r="M268" s="3"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B269" s="1">
@@ -6661,7 +6667,7 @@
       <c r="M269" s="3"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B270" s="1">
@@ -6682,7 +6688,7 @@
       <c r="M270" s="3"/>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B271" s="1">
@@ -6703,7 +6709,7 @@
       <c r="M271" s="3"/>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
+      <c r="A272" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B272" s="1">
@@ -6724,7 +6730,7 @@
       <c r="M272" s="3"/>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
+      <c r="A273" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B273" s="1">
@@ -6745,7 +6751,7 @@
       <c r="M273" s="3"/>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B274" s="1">
@@ -6766,7 +6772,7 @@
       <c r="M274" s="3"/>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B275" s="1">
@@ -6787,7 +6793,7 @@
       <c r="M275" s="3"/>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
+      <c r="A276" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B276" s="1">
@@ -6808,7 +6814,7 @@
       <c r="M276" s="3"/>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
+      <c r="A277" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B277" s="1">
@@ -6829,7 +6835,7 @@
       <c r="M277" s="3"/>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
+      <c r="A278" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B278" s="1">
@@ -6850,7 +6856,7 @@
       <c r="M278" s="3"/>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
+      <c r="A279" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B279" s="1">
@@ -6871,7 +6877,7 @@
       <c r="M279" s="3"/>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B280" s="1">
@@ -6892,7 +6898,7 @@
       <c r="M280" s="3"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B281" s="1">
@@ -6913,7 +6919,7 @@
       <c r="M281" s="3"/>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
+      <c r="A282" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B282" s="1">
@@ -6934,7 +6940,7 @@
       <c r="M282" s="3"/>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
+      <c r="A283" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B283" s="1">
@@ -6955,7 +6961,7 @@
       <c r="M283" s="3"/>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B284" s="1">
@@ -6976,7 +6982,7 @@
       <c r="M284" s="3"/>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B285" s="1">
@@ -6997,7 +7003,7 @@
       <c r="M285" s="3"/>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B286" s="1">
@@ -7018,7 +7024,7 @@
       <c r="M286" s="3"/>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
+      <c r="A287" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B287" s="1">
@@ -7039,7 +7045,7 @@
       <c r="M287" s="3"/>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
+      <c r="A288" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B288" s="1">
@@ -7060,7 +7066,7 @@
       <c r="M288" s="3"/>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
+      <c r="A289" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B289" s="1">
@@ -7081,7 +7087,7 @@
       <c r="M289" s="3"/>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
+      <c r="A290" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B290" s="1">
@@ -7102,7 +7108,7 @@
       <c r="M290" s="3"/>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
+      <c r="A291" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B291" s="1">
@@ -7123,7 +7129,7 @@
       <c r="M291" s="3"/>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+      <c r="A292" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B292" s="1">
@@ -7144,7 +7150,7 @@
       <c r="M292" s="3"/>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
+      <c r="A293" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B293" s="1">
@@ -7165,7 +7171,7 @@
       <c r="M293" s="3"/>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B294" s="1">
@@ -7186,7 +7192,7 @@
       <c r="M294" s="3"/>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
+      <c r="A295" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B295" s="1">
@@ -7207,7 +7213,7 @@
       <c r="M295" s="3"/>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
+      <c r="A296" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B296" s="1">
@@ -7228,7 +7234,7 @@
       <c r="M296" s="3"/>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
+      <c r="A297" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B297" s="1">
@@ -7249,7 +7255,7 @@
       <c r="M297" s="3"/>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B298" s="1">
@@ -7270,7 +7276,7 @@
       <c r="M298" s="3"/>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+      <c r="A299" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B299" s="1">
@@ -7291,7 +7297,7 @@
       <c r="M299" s="3"/>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
+      <c r="A300" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B300" s="1">
@@ -7312,7 +7318,7 @@
       <c r="M300" s="3"/>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
+      <c r="A301" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B301" s="1">
@@ -7333,7 +7339,7 @@
       <c r="M301" s="3"/>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
+      <c r="A302" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B302" s="1">
@@ -7354,7 +7360,7 @@
       <c r="M302" s="3"/>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
+      <c r="A303" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B303" s="1">
@@ -7375,7 +7381,7 @@
       <c r="M303" s="3"/>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
+      <c r="A304" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B304" s="1">
@@ -7396,7 +7402,7 @@
       <c r="M304" s="3"/>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
+      <c r="A305" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B305" s="1">
@@ -7417,7 +7423,7 @@
       <c r="M305" s="3"/>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
+      <c r="A306" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B306" s="1">
@@ -7438,7 +7444,7 @@
       <c r="M306" s="3"/>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
+      <c r="A307" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B307" s="1">
@@ -7459,7 +7465,7 @@
       <c r="M307" s="3"/>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
+      <c r="A308" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B308" s="1">
@@ -7480,7 +7486,7 @@
       <c r="M308" s="3"/>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
+      <c r="A309" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B309" s="1">
@@ -7501,7 +7507,7 @@
       <c r="M309" s="3"/>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+      <c r="A310" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B310" s="1">
@@ -7522,7 +7528,7 @@
       <c r="M310" s="3"/>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
+      <c r="A311" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B311" s="1">
@@ -7543,7 +7549,7 @@
       <c r="M311" s="3"/>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
+      <c r="A312" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B312" s="1">
@@ -7564,7 +7570,7 @@
       <c r="M312" s="3"/>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
+      <c r="A313" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B313" s="1">
@@ -7585,7 +7591,7 @@
       <c r="M313" s="3"/>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
+      <c r="A314" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B314" s="1">
@@ -7606,7 +7612,7 @@
       <c r="M314" s="3"/>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
+      <c r="A315" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B315" s="1">
@@ -7627,7 +7633,7 @@
       <c r="M315" s="3"/>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
+      <c r="A316" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B316" s="1">
@@ -7648,7 +7654,7 @@
       <c r="M316" s="3"/>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
+      <c r="A317" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B317" s="1">
@@ -7669,7 +7675,7 @@
       <c r="M317" s="3"/>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
+      <c r="A318" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B318" s="1">
@@ -7690,7 +7696,7 @@
       <c r="M318" s="3"/>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
+      <c r="A319" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B319" s="1">
@@ -7711,7 +7717,7 @@
       <c r="M319" s="3"/>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
+      <c r="A320" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B320" s="1">
@@ -7732,7 +7738,7 @@
       <c r="M320" s="3"/>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
+      <c r="A321" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B321" s="1">
@@ -7753,7 +7759,7 @@
       <c r="M321" s="3"/>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+      <c r="A322" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B322" s="1">
@@ -7774,7 +7780,7 @@
       <c r="M322" s="3"/>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
+      <c r="A323" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B323" s="1">
@@ -7795,7 +7801,7 @@
       <c r="M323" s="3"/>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
+      <c r="A324" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B324" s="1">
@@ -7816,7 +7822,7 @@
       <c r="M324" s="3"/>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+      <c r="A325" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B325" s="1">
@@ -7837,7 +7843,7 @@
       <c r="M325" s="3"/>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
+      <c r="A326" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B326" s="1">
@@ -7858,7 +7864,7 @@
       <c r="M326" s="3"/>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
+      <c r="A327" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B327" s="1">
@@ -7879,7 +7885,7 @@
       <c r="M327" s="3"/>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
+      <c r="A328" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B328" s="1">
@@ -7900,7 +7906,7 @@
       <c r="M328" s="3"/>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
+      <c r="A329" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B329" s="1">
@@ -7921,7 +7927,7 @@
       <c r="M329" s="3"/>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
+      <c r="A330" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B330" s="1">
@@ -7942,7 +7948,7 @@
       <c r="M330" s="3"/>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
+      <c r="A331" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B331" s="1">
@@ -7963,7 +7969,7 @@
       <c r="M331" s="3"/>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
+      <c r="A332" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B332" s="1">
@@ -7984,7 +7990,7 @@
       <c r="M332" s="3"/>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
+      <c r="A333" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B333" s="1">
@@ -8005,7 +8011,7 @@
       <c r="M333" s="3"/>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
+      <c r="A334" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B334" s="1">
@@ -8026,7 +8032,7 @@
       <c r="M334" s="3"/>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
+      <c r="A335" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B335" s="1">
@@ -8047,7 +8053,7 @@
       <c r="M335" s="3"/>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
+      <c r="A336" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B336" s="1">
@@ -8068,7 +8074,7 @@
       <c r="M336" s="3"/>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
+      <c r="A337" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B337" s="1">
@@ -8089,7 +8095,7 @@
       <c r="M337" s="3"/>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
+      <c r="A338" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B338" s="1">
@@ -8110,7 +8116,7 @@
       <c r="M338" s="3"/>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
+      <c r="A339" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B339" s="1">
@@ -8131,7 +8137,7 @@
       <c r="M339" s="3"/>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
+      <c r="A340" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B340" s="1">
@@ -8152,7 +8158,7 @@
       <c r="M340" s="3"/>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
+      <c r="A341" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B341" s="1">
@@ -8173,7 +8179,7 @@
       <c r="M341" s="3"/>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
+      <c r="A342" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B342" s="1">
@@ -8194,7 +8200,7 @@
       <c r="M342" s="3"/>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
+      <c r="A343" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B343" s="1">
@@ -8215,7 +8221,7 @@
       <c r="M343" s="3"/>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
+      <c r="A344" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B344" s="1">
@@ -8236,7 +8242,7 @@
       <c r="M344" s="3"/>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
+      <c r="A345" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B345" s="1">
@@ -8257,7 +8263,7 @@
       <c r="M345" s="3"/>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
+      <c r="A346" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B346" s="1">
@@ -8278,7 +8284,7 @@
       <c r="M346" s="3"/>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
+      <c r="A347" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B347" s="1">
@@ -8299,7 +8305,7 @@
       <c r="M347" s="3"/>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
+      <c r="A348" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B348" s="1">
@@ -8320,7 +8326,7 @@
       <c r="M348" s="3"/>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
+      <c r="A349" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B349" s="1">
@@ -8341,7 +8347,7 @@
       <c r="M349" s="3"/>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B350" s="1">
@@ -8362,7 +8368,7 @@
       <c r="M350" s="3"/>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
+      <c r="A351" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B351" s="2" t="s">
@@ -8382,7 +8388,7 @@
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
+      <c r="A352" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B352" s="1">
@@ -8402,7 +8408,7 @@
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
+      <c r="A353" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B353" s="1">
@@ -8422,7 +8428,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
+      <c r="A354" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B354" s="1">
@@ -8442,7 +8448,7 @@
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
+      <c r="A355" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B355" s="1">
@@ -8462,7 +8468,7 @@
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B356" s="1">
@@ -8482,7 +8488,7 @@
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
+      <c r="A357" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B357" s="1">
@@ -8502,7 +8508,7 @@
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
+      <c r="A358" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B358" s="1">
@@ -8522,7 +8528,7 @@
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
+      <c r="A359" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B359" s="1">
@@ -8542,7 +8548,7 @@
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
+      <c r="A360" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B360" s="1">
@@ -8562,7 +8568,7 @@
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
+      <c r="A361" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B361" s="1">
@@ -8582,7 +8588,7 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
+      <c r="A362" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B362" s="1">
@@ -8602,7 +8608,7 @@
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
+      <c r="A363" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B363" s="1">
@@ -8622,7 +8628,7 @@
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
+      <c r="A364" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B364" s="1">
@@ -8642,7 +8648,7 @@
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
+      <c r="A365" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B365" s="1">
@@ -8662,7 +8668,7 @@
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
+      <c r="A366" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B366" s="1">
@@ -8682,7 +8688,7 @@
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
+      <c r="A367" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B367" s="1">
@@ -8702,7 +8708,7 @@
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
+      <c r="A368" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B368" s="1">
@@ -8722,7 +8728,7 @@
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
+      <c r="A369" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B369" s="1">
@@ -8742,7 +8748,7 @@
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
+      <c r="A370" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B370" s="1">
@@ -8762,7 +8768,7 @@
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
+      <c r="A371" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B371" s="1">
@@ -8782,7 +8788,7 @@
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
+      <c r="A372" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B372" s="1">
@@ -8802,7 +8808,7 @@
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
+      <c r="A373" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B373" s="1">
@@ -8822,7 +8828,7 @@
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
+      <c r="A374" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B374" s="1">
@@ -8842,7 +8848,7 @@
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
+      <c r="A375" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B375" s="1">
@@ -8862,7 +8868,7 @@
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
+      <c r="A376" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B376" s="1">
@@ -8882,7 +8888,7 @@
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
+      <c r="A377" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B377" s="1">
@@ -8902,7 +8908,7 @@
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
+      <c r="A378" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B378" s="1">
@@ -8922,7 +8928,7 @@
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
+      <c r="A379" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B379" s="1">
@@ -8942,7 +8948,7 @@
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
+      <c r="A380" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B380" s="1">
@@ -8962,7 +8968,7 @@
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
+      <c r="A381" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B381" s="1">
@@ -8982,7 +8988,7 @@
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
+      <c r="A382" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B382" s="1">
@@ -9002,7 +9008,7 @@
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
+      <c r="A383" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B383" s="1">
@@ -9022,7 +9028,7 @@
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
+      <c r="A384" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B384" s="1">
@@ -9042,7 +9048,7 @@
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
+      <c r="A385" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B385" s="1">
@@ -9062,7 +9068,7 @@
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
+      <c r="A386" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B386" s="1">
@@ -9082,7 +9088,7 @@
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
+      <c r="A387" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B387" s="1">
@@ -9102,7 +9108,7 @@
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
+      <c r="A388" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B388" s="1">
@@ -9122,7 +9128,7 @@
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
+      <c r="A389" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B389" s="1">
@@ -9142,7 +9148,7 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
+      <c r="A390" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B390" s="1">
@@ -9162,7 +9168,7 @@
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
+      <c r="A391" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B391" s="1">
@@ -9182,7 +9188,7 @@
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="s">
+      <c r="A392" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B392" s="1">
@@ -9202,7 +9208,7 @@
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
+      <c r="A393" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B393" s="1">
@@ -9222,7 +9228,7 @@
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
+      <c r="A394" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B394" s="1">
@@ -9242,7 +9248,7 @@
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395" s="1" t="s">
+      <c r="A395" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B395" s="1">
@@ -9262,7 +9268,7 @@
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B396" s="1">
@@ -9282,7 +9288,7 @@
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="s">
+      <c r="A397" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B397" s="1">
@@ -9302,7 +9308,7 @@
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
+      <c r="A398" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B398" s="1">
@@ -9322,7 +9328,7 @@
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
+      <c r="A399" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B399" s="1">
@@ -9342,7 +9348,7 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
+      <c r="A400" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B400" s="1">
@@ -9362,7 +9368,7 @@
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
+      <c r="A401" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B401" s="1">
@@ -9382,7 +9388,7 @@
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
+      <c r="A402" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B402" s="1">
@@ -9402,7 +9408,7 @@
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" s="1" t="s">
+      <c r="A403" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B403" s="1">
@@ -9422,7 +9428,7 @@
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="s">
+      <c r="A404" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B404" s="1">
@@ -9442,7 +9448,7 @@
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
+      <c r="A405" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B405" s="1">
@@ -9462,7 +9468,7 @@
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="s">
+      <c r="A406" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B406" s="1">
@@ -9482,7 +9488,7 @@
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="s">
+      <c r="A407" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B407" s="1">
@@ -9502,7 +9508,7 @@
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
+      <c r="A408" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B408" s="1">
@@ -9522,7 +9528,7 @@
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
+      <c r="A409" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B409" s="1">
@@ -9542,7 +9548,7 @@
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="s">
+      <c r="A410" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B410" s="1">
@@ -9562,7 +9568,7 @@
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
+      <c r="A411" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B411" s="1">
@@ -9582,7 +9588,7 @@
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
+      <c r="A412" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B412" s="1">
@@ -9602,7 +9608,7 @@
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" s="1" t="s">
+      <c r="A413" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B413" s="1">
@@ -9622,7 +9628,7 @@
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="s">
+      <c r="A414" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B414" s="1">
@@ -9642,7 +9648,7 @@
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415" s="1" t="s">
+      <c r="A415" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B415" s="1">
@@ -9662,7 +9668,7 @@
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="s">
+      <c r="A416" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B416" s="1">
@@ -9682,7 +9688,7 @@
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="s">
+      <c r="A417" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B417" s="1">
@@ -9702,7 +9708,7 @@
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A418" s="1" t="s">
+      <c r="A418" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B418" s="1">
@@ -9722,7 +9728,7 @@
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A419" s="1" t="s">
+      <c r="A419" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B419" s="1">
@@ -9742,7 +9748,7 @@
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" s="1" t="s">
+      <c r="A420" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B420" s="1">
@@ -9762,7 +9768,7 @@
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="s">
+      <c r="A421" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B421" s="1">
@@ -9782,7 +9788,7 @@
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" s="1" t="s">
+      <c r="A422" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B422" s="1">
@@ -9802,7 +9808,7 @@
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" s="1" t="s">
+      <c r="A423" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B423" s="1">
@@ -9822,7 +9828,7 @@
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" s="1" t="s">
+      <c r="A424" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B424" s="1">
@@ -9842,7 +9848,7 @@
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" s="1" t="s">
+      <c r="A425" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B425" s="1">
@@ -9862,7 +9868,7 @@
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="s">
+      <c r="A426" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B426" s="1">
@@ -9882,7 +9888,7 @@
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" s="1" t="s">
+      <c r="A427" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B427" s="1">
@@ -9902,7 +9908,7 @@
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" s="1" t="s">
+      <c r="A428" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B428" s="1">
@@ -9922,7 +9928,7 @@
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="s">
+      <c r="A429" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B429" s="1">
@@ -9942,7 +9948,7 @@
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="s">
+      <c r="A430" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B430" s="1">
@@ -9962,7 +9968,7 @@
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" s="1" t="s">
+      <c r="A431" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B431" s="1">
@@ -9982,7 +9988,7 @@
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" s="1" t="s">
+      <c r="A432" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B432" s="1">
@@ -10002,7 +10008,7 @@
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
+      <c r="A433" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B433" s="1">
@@ -10022,7 +10028,7 @@
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="s">
+      <c r="A434" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B434" s="1">
@@ -10042,7 +10048,7 @@
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A435" s="1" t="s">
+      <c r="A435" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B435" s="1">
@@ -10062,7 +10068,7 @@
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A436" s="1" t="s">
+      <c r="A436" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B436" s="1">
@@ -10082,7 +10088,7 @@
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="s">
+      <c r="A437" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B437" s="1">
@@ -10102,7 +10108,7 @@
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="1" t="s">
+      <c r="A438" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B438" s="1">
@@ -10122,7 +10128,7 @@
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" s="1" t="s">
+      <c r="A439" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B439" s="1">
@@ -10142,7 +10148,7 @@
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
+      <c r="A440" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B440" s="1">
@@ -10162,7 +10168,7 @@
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
+      <c r="A441" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B441" s="1">
@@ -10182,7 +10188,7 @@
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A442" s="1" t="s">
+      <c r="A442" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B442" s="1">
@@ -10202,7 +10208,7 @@
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A443" s="1" t="s">
+      <c r="A443" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B443" s="1">
@@ -10222,7 +10228,7 @@
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A444" s="1" t="s">
+      <c r="A444" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B444" s="1">
@@ -10242,7 +10248,7 @@
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A445" s="1" t="s">
+      <c r="A445" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B445" s="1">
@@ -10262,7 +10268,7 @@
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A446" s="1" t="s">
+      <c r="A446" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B446" s="1">
@@ -10282,7 +10288,7 @@
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A447" s="1" t="s">
+      <c r="A447" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B447" s="1">
@@ -10302,7 +10308,7 @@
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A448" s="1" t="s">
+      <c r="A448" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B448" s="1">
@@ -10322,7 +10328,7 @@
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A449" s="1" t="s">
+      <c r="A449" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B449" s="1">
@@ -10342,7 +10348,7 @@
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A450" s="1" t="s">
+      <c r="A450" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B450" s="1">
@@ -10362,7 +10368,7 @@
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A451" s="1" t="s">
+      <c r="A451" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B451" s="1">
@@ -10382,7 +10388,7 @@
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A452" s="1" t="s">
+      <c r="A452" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B452" s="1">
@@ -10402,7 +10408,7 @@
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A453" s="1" t="s">
+      <c r="A453" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B453" s="1">
@@ -10422,7 +10428,7 @@
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A454" s="1" t="s">
+      <c r="A454" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B454" s="1">
@@ -10442,7 +10448,7 @@
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A455" s="1" t="s">
+      <c r="A455" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B455" s="1">
@@ -10462,7 +10468,7 @@
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A456" s="1" t="s">
+      <c r="A456" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B456" s="1">
@@ -10482,7 +10488,7 @@
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A457" s="1" t="s">
+      <c r="A457" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B457" s="1">
@@ -10502,7 +10508,7 @@
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A458" s="1" t="s">
+      <c r="A458" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B458" s="1">
@@ -10522,7 +10528,7 @@
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A459" s="1" t="s">
+      <c r="A459" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B459" s="1">
@@ -10542,7 +10548,7 @@
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A460" s="1" t="s">
+      <c r="A460" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B460" s="1">
@@ -10562,7 +10568,7 @@
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A461" s="1" t="s">
+      <c r="A461" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B461" s="1">
@@ -10582,7 +10588,7 @@
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A462" s="1" t="s">
+      <c r="A462" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B462" s="1">
@@ -10602,7 +10608,7 @@
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A463" s="1" t="s">
+      <c r="A463" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B463" s="1">
@@ -10622,7 +10628,7 @@
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A464" s="1" t="s">
+      <c r="A464" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B464" s="1">
@@ -10642,7 +10648,7 @@
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A465" s="1" t="s">
+      <c r="A465" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B465" s="1">
@@ -10662,7 +10668,7 @@
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A466" s="1" t="s">
+      <c r="A466" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B466" s="1">
@@ -10682,7 +10688,7 @@
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A467" s="1" t="s">
+      <c r="A467" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B467" s="1">
@@ -10702,7 +10708,7 @@
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A468" s="1" t="s">
+      <c r="A468" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B468" s="1">
@@ -10722,7 +10728,7 @@
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A469" s="1" t="s">
+      <c r="A469" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B469" s="1">
@@ -10742,7 +10748,7 @@
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A470" s="1" t="s">
+      <c r="A470" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B470" s="1">
@@ -10762,7 +10768,7 @@
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A471" s="1" t="s">
+      <c r="A471" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B471" s="1">
@@ -10782,7 +10788,7 @@
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A472" s="1" t="s">
+      <c r="A472" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B472" s="1">
@@ -10802,7 +10808,7 @@
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A473" s="1" t="s">
+      <c r="A473" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B473" s="1">
@@ -10822,7 +10828,7 @@
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A474" s="1" t="s">
+      <c r="A474" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B474" s="1">
@@ -10842,7 +10848,7 @@
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A475" s="1" t="s">
+      <c r="A475" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B475" s="1">
@@ -10862,7 +10868,7 @@
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A476" s="1" t="s">
+      <c r="A476" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B476" s="1">
@@ -10882,7 +10888,7 @@
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A477" s="1" t="s">
+      <c r="A477" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B477" s="1">
@@ -10902,7 +10908,7 @@
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A478" s="1" t="s">
+      <c r="A478" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B478" s="1">
@@ -10922,7 +10928,7 @@
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479" s="1" t="s">
+      <c r="A479" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B479" s="1">
@@ -10942,7 +10948,7 @@
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A480" s="1" t="s">
+      <c r="A480" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B480" s="1">
@@ -10962,7 +10968,7 @@
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A481" s="1" t="s">
+      <c r="A481" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B481" s="1">
@@ -10982,7 +10988,7 @@
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A482" s="1" t="s">
+      <c r="A482" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B482" s="1">
@@ -11002,7 +11008,7 @@
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A483" s="1" t="s">
+      <c r="A483" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B483" s="1">
@@ -11022,7 +11028,7 @@
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A484" s="1" t="s">
+      <c r="A484" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B484" s="1">
@@ -11042,7 +11048,7 @@
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A485" s="1" t="s">
+      <c r="A485" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B485" s="1">
@@ -11062,7 +11068,7 @@
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A486" s="1" t="s">
+      <c r="A486" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B486" s="1">
@@ -11082,7 +11088,7 @@
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A487" s="1" t="s">
+      <c r="A487" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B487" s="1">
@@ -11102,7 +11108,7 @@
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A488" s="1" t="s">
+      <c r="A488" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B488" s="1">
@@ -11122,7 +11128,7 @@
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A489" s="1" t="s">
+      <c r="A489" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B489" s="1">
@@ -11142,7 +11148,7 @@
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A490" s="1" t="s">
+      <c r="A490" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B490" s="1">
@@ -11162,7 +11168,7 @@
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A491" s="1" t="s">
+      <c r="A491" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B491" s="1">
@@ -11182,7 +11188,7 @@
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A492" s="1" t="s">
+      <c r="A492" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B492" s="1">
@@ -11202,7 +11208,7 @@
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A493" s="1" t="s">
+      <c r="A493" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B493" s="1">
@@ -11222,7 +11228,7 @@
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A494" s="1" t="s">
+      <c r="A494" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B494" s="1">
@@ -11242,7 +11248,7 @@
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A495" s="1" t="s">
+      <c r="A495" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B495" s="1">
@@ -11262,7 +11268,7 @@
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A496" s="1" t="s">
+      <c r="A496" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B496" s="1">
@@ -11282,7 +11288,7 @@
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A497" s="1" t="s">
+      <c r="A497" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B497" s="1">
@@ -11302,7 +11308,7 @@
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A498" s="1" t="s">
+      <c r="A498" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B498" s="1">
@@ -11322,7 +11328,7 @@
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A499" s="1" t="s">
+      <c r="A499" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B499" s="1">
@@ -11342,7 +11348,7 @@
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A500" s="1" t="s">
+      <c r="A500" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B500" s="1">
@@ -11362,7 +11368,7 @@
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A501" s="1" t="s">
+      <c r="A501" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B501" s="1">
@@ -11382,7 +11388,7 @@
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A502" s="1" t="s">
+      <c r="A502" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B502" s="1">
@@ -11402,7 +11408,7 @@
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A503" s="1" t="s">
+      <c r="A503" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B503" s="1">
@@ -11422,7 +11428,7 @@
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A504" s="1" t="s">
+      <c r="A504" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B504" s="1">
@@ -11442,7 +11448,7 @@
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A505" s="1" t="s">
+      <c r="A505" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B505" s="1">
@@ -11462,7 +11468,7 @@
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A506" s="1" t="s">
+      <c r="A506" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B506" s="1">
@@ -11482,7 +11488,7 @@
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A507" s="1" t="s">
+      <c r="A507" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B507" s="1">
@@ -11502,7 +11508,7 @@
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A508" s="1" t="s">
+      <c r="A508" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B508" s="1">
@@ -11522,7 +11528,7 @@
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A509" s="1" t="s">
+      <c r="A509" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B509" s="1">
@@ -11542,7 +11548,7 @@
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A510" s="1" t="s">
+      <c r="A510" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B510" s="1">
@@ -11562,7 +11568,7 @@
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A511" s="1" t="s">
+      <c r="A511" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B511" s="1">
@@ -11582,7 +11588,7 @@
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A512" s="1" t="s">
+      <c r="A512" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B512" s="1">
@@ -11602,7 +11608,7 @@
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A513" s="1" t="s">
+      <c r="A513" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B513" s="1">
@@ -11622,7 +11628,7 @@
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A514" s="1" t="s">
+      <c r="A514" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B514" s="1">
@@ -11642,7 +11648,7 @@
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A515" s="1" t="s">
+      <c r="A515" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B515" s="1">
@@ -11662,7 +11668,7 @@
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A516" s="1" t="s">
+      <c r="A516" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B516" s="1">
@@ -11682,7 +11688,7 @@
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A517" s="1" t="s">
+      <c r="A517" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B517" s="1">
@@ -11702,7 +11708,7 @@
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A518" s="1" t="s">
+      <c r="A518" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B518" s="1">
@@ -11722,7 +11728,7 @@
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A519" s="1" t="s">
+      <c r="A519" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B519" s="1">
@@ -11742,7 +11748,7 @@
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A520" s="1" t="s">
+      <c r="A520" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B520" s="1">
@@ -11762,7 +11768,7 @@
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A521" s="1" t="s">
+      <c r="A521" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B521" s="1">
@@ -11782,7 +11788,7 @@
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A522" s="1" t="s">
+      <c r="A522" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B522" s="1">
@@ -11802,7 +11808,7 @@
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A523" s="1" t="s">
+      <c r="A523" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B523" s="1">
@@ -11822,7 +11828,7 @@
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A524" s="1" t="s">
+      <c r="A524" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B524" s="1">
@@ -11842,7 +11848,7 @@
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A525" s="1" t="s">
+      <c r="A525" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B525" s="1">
@@ -11862,7 +11868,7 @@
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A526" s="1" t="s">
+      <c r="A526" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B526" s="1">
@@ -11882,7 +11888,7 @@
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A527" s="1" t="s">
+      <c r="A527" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B527" s="1">
@@ -11902,7 +11908,7 @@
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A528" s="1" t="s">
+      <c r="A528" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B528" s="1">
@@ -11922,7 +11928,7 @@
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A529" s="1" t="s">
+      <c r="A529" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B529" s="1">
@@ -11942,7 +11948,7 @@
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A530" s="1" t="s">
+      <c r="A530" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B530" s="1">
@@ -11962,7 +11968,7 @@
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A531" s="1" t="s">
+      <c r="A531" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B531" s="1">
@@ -11982,7 +11988,7 @@
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A532" s="1" t="s">
+      <c r="A532" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B532" s="1">
@@ -12002,7 +12008,7 @@
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A533" s="1" t="s">
+      <c r="A533" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B533" s="1">
@@ -12022,7 +12028,7 @@
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A534" s="1" t="s">
+      <c r="A534" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B534" s="1">
@@ -12042,7 +12048,7 @@
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A535" s="1" t="s">
+      <c r="A535" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B535" s="1">
@@ -12062,7 +12068,7 @@
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A536" s="1" t="s">
+      <c r="A536" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B536" s="1">
@@ -12082,7 +12088,7 @@
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A537" s="1" t="s">
+      <c r="A537" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B537" s="1">
@@ -12102,7 +12108,7 @@
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A538" s="1" t="s">
+      <c r="A538" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B538" s="1">
@@ -12122,7 +12128,7 @@
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A539" s="1" t="s">
+      <c r="A539" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B539" s="1">
@@ -12142,7 +12148,7 @@
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A540" s="1" t="s">
+      <c r="A540" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B540" s="1">
@@ -12162,7 +12168,7 @@
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A541" s="1" t="s">
+      <c r="A541" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B541" s="1">
@@ -12182,7 +12188,7 @@
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A542" s="1" t="s">
+      <c r="A542" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B542" s="1">
@@ -12202,7 +12208,7 @@
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A543" s="1" t="s">
+      <c r="A543" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B543" s="1">
@@ -12222,7 +12228,7 @@
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A544" s="1" t="s">
+      <c r="A544" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B544" s="1">
@@ -12242,7 +12248,7 @@
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A545" s="1" t="s">
+      <c r="A545" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B545" s="1">
@@ -12262,7 +12268,7 @@
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A546" s="1" t="s">
+      <c r="A546" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B546" s="1">
@@ -12282,7 +12288,7 @@
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A547" s="1" t="s">
+      <c r="A547" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B547" s="1">
@@ -12302,7 +12308,7 @@
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A548" s="1" t="s">
+      <c r="A548" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B548" s="1">
@@ -12322,7 +12328,7 @@
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A549" s="1" t="s">
+      <c r="A549" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B549" s="1">
@@ -12342,7 +12348,7 @@
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A550" s="2" t="s">
+      <c r="A550" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B550" s="2" t="s">
@@ -12362,7 +12368,7 @@
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A551" s="1" t="s">
+      <c r="A551" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B551" s="1">
@@ -12382,7 +12388,7 @@
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A552" s="1" t="s">
+      <c r="A552" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B552" s="1">
@@ -12402,7 +12408,7 @@
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A553" s="1" t="s">
+      <c r="A553" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B553" s="1">
@@ -12422,7 +12428,7 @@
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A554" s="1" t="s">
+      <c r="A554" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B554" s="1">
@@ -12442,7 +12448,7 @@
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A555" s="1" t="s">
+      <c r="A555" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B555" s="1">
@@ -12462,7 +12468,7 @@
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A556" s="1" t="s">
+      <c r="A556" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B556" s="1">
@@ -12482,7 +12488,7 @@
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A557" s="1" t="s">
+      <c r="A557" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B557" s="1">
@@ -12502,7 +12508,7 @@
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A558" s="1" t="s">
+      <c r="A558" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B558" s="1">
@@ -12522,7 +12528,7 @@
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A559" s="1" t="s">
+      <c r="A559" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B559" s="1">
@@ -12542,7 +12548,7 @@
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A560" s="1" t="s">
+      <c r="A560" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B560" s="1">
@@ -12562,7 +12568,7 @@
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A561" s="1" t="s">
+      <c r="A561" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B561" s="1">
@@ -12582,7 +12588,7 @@
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A562" s="1" t="s">
+      <c r="A562" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B562" s="1">
@@ -12602,7 +12608,7 @@
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A563" s="1" t="s">
+      <c r="A563" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B563" s="1">
@@ -12622,7 +12628,7 @@
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A564" s="1" t="s">
+      <c r="A564" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B564" s="1">
@@ -12642,7 +12648,7 @@
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A565" s="1" t="s">
+      <c r="A565" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B565" s="1">
@@ -12662,7 +12668,7 @@
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A566" s="1" t="s">
+      <c r="A566" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B566" s="1">
@@ -12682,7 +12688,7 @@
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A567" s="1" t="s">
+      <c r="A567" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B567" s="1">
@@ -12702,7 +12708,7 @@
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A568" s="1" t="s">
+      <c r="A568" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B568" s="1">
@@ -12722,7 +12728,7 @@
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A569" s="1" t="s">
+      <c r="A569" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B569" s="1">
@@ -12742,7 +12748,7 @@
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A570" s="1" t="s">
+      <c r="A570" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B570" s="1">
@@ -12762,7 +12768,7 @@
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A571" s="1" t="s">
+      <c r="A571" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B571" s="1">
@@ -12782,7 +12788,7 @@
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A572" s="1" t="s">
+      <c r="A572" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B572" s="1">
@@ -12802,7 +12808,7 @@
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A573" s="1" t="s">
+      <c r="A573" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B573" s="1">
@@ -12822,7 +12828,7 @@
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A574" s="1" t="s">
+      <c r="A574" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B574" s="1">
@@ -12842,7 +12848,7 @@
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A575" s="1" t="s">
+      <c r="A575" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B575" s="1">
@@ -12862,7 +12868,7 @@
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A576" s="1" t="s">
+      <c r="A576" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B576" s="1">
@@ -12882,7 +12888,7 @@
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A577" s="1" t="s">
+      <c r="A577" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B577" s="1">
@@ -12902,7 +12908,7 @@
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A578" s="1" t="s">
+      <c r="A578" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B578" s="1">
@@ -12922,7 +12928,7 @@
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A579" s="1" t="s">
+      <c r="A579" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B579" s="1">
@@ -12942,7 +12948,7 @@
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A580" s="1" t="s">
+      <c r="A580" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B580" s="1">
@@ -12962,7 +12968,7 @@
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A581" s="1" t="s">
+      <c r="A581" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B581" s="1">
@@ -12982,7 +12988,7 @@
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A582" s="1" t="s">
+      <c r="A582" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B582" s="1">
@@ -13002,7 +13008,7 @@
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A583" s="1" t="s">
+      <c r="A583" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B583" s="1">
@@ -13022,7 +13028,7 @@
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A584" s="1" t="s">
+      <c r="A584" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B584" s="1">
@@ -13042,7 +13048,7 @@
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A585" s="1" t="s">
+      <c r="A585" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B585" s="1">
@@ -13062,7 +13068,7 @@
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A586" s="1" t="s">
+      <c r="A586" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B586" s="1">
@@ -13082,7 +13088,7 @@
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A587" s="1" t="s">
+      <c r="A587" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B587" s="1">
@@ -13102,7 +13108,7 @@
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A588" s="1" t="s">
+      <c r="A588" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B588" s="1">
@@ -13122,7 +13128,7 @@
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A589" s="1" t="s">
+      <c r="A589" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B589" s="1">
@@ -13142,7 +13148,7 @@
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A590" s="1" t="s">
+      <c r="A590" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B590" s="1">
@@ -13162,7 +13168,7 @@
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A591" s="1" t="s">
+      <c r="A591" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B591" s="1">
@@ -13182,7 +13188,7 @@
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A592" s="1" t="s">
+      <c r="A592" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B592" s="1">
@@ -13202,7 +13208,7 @@
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A593" s="1" t="s">
+      <c r="A593" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B593" s="1">
@@ -13222,7 +13228,7 @@
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A594" s="1" t="s">
+      <c r="A594" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B594" s="1">
@@ -13242,7 +13248,7 @@
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A595" s="1" t="s">
+      <c r="A595" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B595" s="1">
@@ -13262,7 +13268,7 @@
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A596" s="1" t="s">
+      <c r="A596" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B596" s="1">
@@ -13282,7 +13288,7 @@
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A597" s="1" t="s">
+      <c r="A597" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B597" s="1">
@@ -13302,7 +13308,7 @@
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A598" s="1" t="s">
+      <c r="A598" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B598" s="1">
@@ -13322,7 +13328,7 @@
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A599" s="1" t="s">
+      <c r="A599" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B599" s="1">
@@ -13342,7 +13348,7 @@
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A600" s="1" t="s">
+      <c r="A600" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B600" s="1">
@@ -13362,7 +13368,7 @@
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A601" s="1" t="s">
+      <c r="A601" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B601" s="1">
@@ -13382,7 +13388,7 @@
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A602" s="1" t="s">
+      <c r="A602" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B602" s="1">
@@ -13402,7 +13408,7 @@
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A603" s="1" t="s">
+      <c r="A603" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B603" s="1">
@@ -13422,7 +13428,7 @@
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A604" s="1" t="s">
+      <c r="A604" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B604" s="1">
@@ -13442,7 +13448,7 @@
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A605" s="1" t="s">
+      <c r="A605" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B605" s="1">
@@ -13462,7 +13468,7 @@
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A606" s="1" t="s">
+      <c r="A606" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B606" s="1">
@@ -13482,7 +13488,7 @@
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A607" s="1" t="s">
+      <c r="A607" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B607" s="1">
@@ -13502,7 +13508,7 @@
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A608" s="1" t="s">
+      <c r="A608" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B608" s="1">
@@ -13522,7 +13528,7 @@
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A609" s="1" t="s">
+      <c r="A609" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B609" s="1">
@@ -13542,7 +13548,7 @@
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A610" s="1" t="s">
+      <c r="A610" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B610" s="1">
@@ -13562,7 +13568,7 @@
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A611" s="1" t="s">
+      <c r="A611" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B611" s="1">
@@ -13582,7 +13588,7 @@
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A612" s="1" t="s">
+      <c r="A612" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B612" s="1">
@@ -13602,7 +13608,7 @@
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A613" s="1" t="s">
+      <c r="A613" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B613" s="1">
@@ -13622,7 +13628,7 @@
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A614" s="1" t="s">
+      <c r="A614" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B614" s="1">
@@ -13642,7 +13648,7 @@
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A615" s="1" t="s">
+      <c r="A615" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B615" s="1">
@@ -13662,7 +13668,7 @@
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A616" s="1" t="s">
+      <c r="A616" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B616" s="1">
@@ -13682,7 +13688,7 @@
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A617" s="1" t="s">
+      <c r="A617" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B617" s="1">
@@ -13702,7 +13708,7 @@
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A618" s="1" t="s">
+      <c r="A618" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B618" s="1">
@@ -13722,7 +13728,7 @@
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A619" s="1" t="s">
+      <c r="A619" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B619" s="1">
@@ -13742,7 +13748,7 @@
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A620" s="1" t="s">
+      <c r="A620" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B620" s="1">
@@ -13762,7 +13768,7 @@
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A621" s="1" t="s">
+      <c r="A621" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B621" s="1">
@@ -13782,7 +13788,7 @@
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A622" s="1" t="s">
+      <c r="A622" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B622" s="1">
@@ -13802,7 +13808,7 @@
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A623" s="1" t="s">
+      <c r="A623" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B623" s="1">
@@ -13822,7 +13828,7 @@
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A624" s="1" t="s">
+      <c r="A624" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B624" s="1">
@@ -13842,7 +13848,7 @@
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A625" s="1" t="s">
+      <c r="A625" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B625" s="1">
@@ -13862,7 +13868,7 @@
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A626" s="1" t="s">
+      <c r="A626" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B626" s="1">
@@ -13882,7 +13888,7 @@
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A627" s="1" t="s">
+      <c r="A627" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B627" s="1">
@@ -13902,7 +13908,7 @@
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A628" s="1" t="s">
+      <c r="A628" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B628" s="1">
@@ -13922,7 +13928,7 @@
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A629" s="1" t="s">
+      <c r="A629" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B629" s="1">
@@ -13942,7 +13948,7 @@
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A630" s="1" t="s">
+      <c r="A630" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B630" s="1">
@@ -13962,7 +13968,7 @@
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A631" s="1" t="s">
+      <c r="A631" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B631" s="1">
@@ -13982,7 +13988,7 @@
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A632" s="1" t="s">
+      <c r="A632" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B632" s="1">
@@ -14002,7 +14008,7 @@
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A633" s="1" t="s">
+      <c r="A633" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B633" s="1">
@@ -14022,7 +14028,7 @@
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A634" s="1" t="s">
+      <c r="A634" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B634" s="1">
@@ -14042,7 +14048,7 @@
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A635" s="1" t="s">
+      <c r="A635" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B635" s="1">
@@ -14062,7 +14068,7 @@
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A636" s="1" t="s">
+      <c r="A636" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B636" s="1">
@@ -14082,7 +14088,7 @@
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A637" s="1" t="s">
+      <c r="A637" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B637" s="1">
@@ -14102,7 +14108,7 @@
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A638" s="1" t="s">
+      <c r="A638" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B638" s="1">
@@ -14122,7 +14128,7 @@
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A639" s="1" t="s">
+      <c r="A639" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B639" s="1">
@@ -14142,7 +14148,7 @@
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A640" s="1" t="s">
+      <c r="A640" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B640" s="1">
@@ -14162,7 +14168,7 @@
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A641" s="1" t="s">
+      <c r="A641" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B641" s="1">
@@ -14182,7 +14188,7 @@
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A642" s="1" t="s">
+      <c r="A642" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B642" s="1">
@@ -14202,7 +14208,7 @@
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A643" s="1" t="s">
+      <c r="A643" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B643" s="1">
@@ -14222,7 +14228,7 @@
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A644" s="1" t="s">
+      <c r="A644" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B644" s="1">
@@ -14242,7 +14248,7 @@
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A645" s="1" t="s">
+      <c r="A645" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B645" s="1">
@@ -14262,7 +14268,7 @@
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A646" s="1" t="s">
+      <c r="A646" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B646" s="1">
@@ -14282,7 +14288,7 @@
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A647" s="1" t="s">
+      <c r="A647" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B647" s="1">
@@ -14302,7 +14308,7 @@
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A648" s="1" t="s">
+      <c r="A648" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B648" s="1">
@@ -14322,7 +14328,7 @@
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A649" s="1" t="s">
+      <c r="A649" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B649" s="1">
@@ -14342,7 +14348,7 @@
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A650" s="1" t="s">
+      <c r="A650" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B650" s="1">
@@ -14362,7 +14368,7 @@
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A651" s="1" t="s">
+      <c r="A651" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B651" s="1">
@@ -14382,7 +14388,7 @@
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A652" s="1" t="s">
+      <c r="A652" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B652" s="1">
@@ -14402,7 +14408,7 @@
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A653" s="1" t="s">
+      <c r="A653" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B653" s="1">
@@ -14422,7 +14428,7 @@
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A654" s="1" t="s">
+      <c r="A654" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B654" s="1">
@@ -14442,7 +14448,7 @@
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A655" s="1" t="s">
+      <c r="A655" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B655" s="1">
@@ -14462,7 +14468,7 @@
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A656" s="1" t="s">
+      <c r="A656" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B656" s="1">
@@ -14482,7 +14488,7 @@
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A657" s="1" t="s">
+      <c r="A657" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B657" s="1">
@@ -14502,7 +14508,7 @@
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A658" s="1" t="s">
+      <c r="A658" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B658" s="1">
@@ -14522,7 +14528,7 @@
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A659" s="1" t="s">
+      <c r="A659" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B659" s="1">
@@ -14542,7 +14548,7 @@
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A660" s="1" t="s">
+      <c r="A660" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B660" s="1">
@@ -14562,7 +14568,7 @@
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A661" s="1" t="s">
+      <c r="A661" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B661" s="1">
@@ -14582,7 +14588,7 @@
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A662" s="1" t="s">
+      <c r="A662" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B662" s="1">
@@ -14602,7 +14608,7 @@
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A663" s="1" t="s">
+      <c r="A663" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B663" s="1">
@@ -14622,7 +14628,7 @@
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A664" s="1" t="s">
+      <c r="A664" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B664" s="1">
@@ -14642,7 +14648,7 @@
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A665" s="1" t="s">
+      <c r="A665" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B665" s="1">
@@ -14662,7 +14668,7 @@
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A666" s="1" t="s">
+      <c r="A666" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B666" s="1">
@@ -14682,7 +14688,7 @@
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A667" s="1" t="s">
+      <c r="A667" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B667" s="1">
@@ -14702,7 +14708,7 @@
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A668" s="1" t="s">
+      <c r="A668" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B668" s="1">
@@ -14722,7 +14728,7 @@
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A669" s="1" t="s">
+      <c r="A669" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B669" s="1">
@@ -14742,7 +14748,7 @@
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A670" s="1" t="s">
+      <c r="A670" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B670" s="1">
@@ -14762,7 +14768,7 @@
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A671" s="1" t="s">
+      <c r="A671" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B671" s="1">
@@ -14782,7 +14788,7 @@
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A672" s="1" t="s">
+      <c r="A672" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B672" s="1">
@@ -14802,7 +14808,7 @@
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A673" s="1" t="s">
+      <c r="A673" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B673" s="1">
@@ -14822,7 +14828,7 @@
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A674" s="1" t="s">
+      <c r="A674" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B674" s="1">
@@ -14842,7 +14848,7 @@
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A675" s="1" t="s">
+      <c r="A675" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B675" s="1">
@@ -14862,7 +14868,7 @@
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A676" s="1" t="s">
+      <c r="A676" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B676" s="1">
@@ -14882,7 +14888,7 @@
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A677" s="1" t="s">
+      <c r="A677" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B677" s="1">
@@ -14902,7 +14908,7 @@
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A678" s="1" t="s">
+      <c r="A678" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B678" s="1">
@@ -14922,7 +14928,7 @@
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A679" s="1" t="s">
+      <c r="A679" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B679" s="1">
@@ -14942,7 +14948,7 @@
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A680" s="1" t="s">
+      <c r="A680" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B680" s="1">
@@ -14962,7 +14968,7 @@
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A681" s="1" t="s">
+      <c r="A681" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B681" s="1">
@@ -14982,7 +14988,7 @@
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A682" s="1" t="s">
+      <c r="A682" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B682" s="1">
@@ -15002,7 +15008,7 @@
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A683" s="1" t="s">
+      <c r="A683" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B683" s="1">
@@ -15022,7 +15028,7 @@
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A684" s="1" t="s">
+      <c r="A684" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B684" s="1">
@@ -15042,7 +15048,7 @@
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A685" s="1" t="s">
+      <c r="A685" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B685" s="1">
@@ -15062,7 +15068,7 @@
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A686" s="1" t="s">
+      <c r="A686" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B686" s="1">
@@ -15082,7 +15088,7 @@
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A687" s="1" t="s">
+      <c r="A687" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B687" s="1">
@@ -15102,7 +15108,7 @@
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A688" s="1" t="s">
+      <c r="A688" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B688" s="1">
@@ -15122,7 +15128,7 @@
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A689" s="1" t="s">
+      <c r="A689" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B689" s="1">
@@ -15142,7 +15148,7 @@
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A690" s="1" t="s">
+      <c r="A690" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B690" s="1">
@@ -15162,7 +15168,7 @@
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A691" s="1" t="s">
+      <c r="A691" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B691" s="1">
@@ -15182,7 +15188,7 @@
       </c>
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A692" s="1" t="s">
+      <c r="A692" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B692" s="1">
@@ -15202,7 +15208,7 @@
       </c>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A693" s="1" t="s">
+      <c r="A693" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B693" s="1">
@@ -15222,7 +15228,7 @@
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A694" s="1" t="s">
+      <c r="A694" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B694" s="1">
@@ -15242,7 +15248,7 @@
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A695" s="1" t="s">
+      <c r="A695" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B695" s="1">
@@ -15262,7 +15268,7 @@
       </c>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A696" s="1" t="s">
+      <c r="A696" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B696" s="1">
@@ -15282,7 +15288,7 @@
       </c>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A697" s="1" t="s">
+      <c r="A697" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B697" s="1">
@@ -15302,7 +15308,7 @@
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A698" s="1" t="s">
+      <c r="A698" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B698" s="1">
@@ -15322,7 +15328,7 @@
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A699" s="1" t="s">
+      <c r="A699" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B699" s="1">
@@ -15342,7 +15348,7 @@
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A700" s="1" t="s">
+      <c r="A700" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B700" s="1">
@@ -15362,7 +15368,7 @@
       </c>
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A701" s="1" t="s">
+      <c r="A701" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B701" s="1">
@@ -15382,7 +15388,7 @@
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A702" s="1" t="s">
+      <c r="A702" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B702" s="1">
@@ -15402,7 +15408,7 @@
       </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A703" s="1" t="s">
+      <c r="A703" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B703" s="1">
@@ -15422,7 +15428,7 @@
       </c>
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A704" s="1" t="s">
+      <c r="A704" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B704" s="1">
@@ -15442,7 +15448,7 @@
       </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A705" s="1" t="s">
+      <c r="A705" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B705" s="1">
@@ -15462,7 +15468,7 @@
       </c>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A706" s="1" t="s">
+      <c r="A706" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B706" s="1">
@@ -15482,7 +15488,7 @@
       </c>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A707" s="1" t="s">
+      <c r="A707" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B707" s="1">
@@ -15502,7 +15508,7 @@
       </c>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A708" s="1" t="s">
+      <c r="A708" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B708" s="1">
@@ -15522,7 +15528,7 @@
       </c>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A709" s="1" t="s">
+      <c r="A709" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B709" s="1">
@@ -15542,7 +15548,7 @@
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A710" s="1" t="s">
+      <c r="A710" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B710" s="1">
@@ -15562,7 +15568,7 @@
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A711" s="1" t="s">
+      <c r="A711" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B711" s="1">
@@ -15582,7 +15588,7 @@
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A712" s="1" t="s">
+      <c r="A712" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B712" s="1">
@@ -15602,7 +15608,7 @@
       </c>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A713" s="1" t="s">
+      <c r="A713" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B713" s="1">
@@ -15622,7 +15628,7 @@
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A714" s="1" t="s">
+      <c r="A714" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B714" s="1">
@@ -15642,7 +15648,7 @@
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A715" s="1" t="s">
+      <c r="A715" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B715" s="1">
@@ -15662,7 +15668,7 @@
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A716" s="1" t="s">
+      <c r="A716" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B716" s="1">
@@ -15682,7 +15688,7 @@
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A717" s="1" t="s">
+      <c r="A717" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B717" s="1">
@@ -15702,7 +15708,7 @@
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A718" s="1" t="s">
+      <c r="A718" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B718" s="1">
@@ -15722,7 +15728,7 @@
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A719" s="1" t="s">
+      <c r="A719" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B719" s="1">
@@ -15742,7 +15748,7 @@
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A720" s="1" t="s">
+      <c r="A720" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B720" s="1">
@@ -15762,7 +15768,7 @@
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A721" s="1" t="s">
+      <c r="A721" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B721" s="1">
@@ -15782,7 +15788,7 @@
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A722" s="1" t="s">
+      <c r="A722" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B722" s="1">
@@ -15802,7 +15808,7 @@
       </c>
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A723" s="1" t="s">
+      <c r="A723" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B723" s="1">
@@ -15822,7 +15828,7 @@
       </c>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A724" s="1" t="s">
+      <c r="A724" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B724" s="1">
@@ -15842,7 +15848,7 @@
       </c>
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A725" s="1" t="s">
+      <c r="A725" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B725" s="1">
@@ -15862,7 +15868,7 @@
       </c>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A726" s="1" t="s">
+      <c r="A726" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B726" s="1">
@@ -15882,7 +15888,7 @@
       </c>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A727" s="1" t="s">
+      <c r="A727" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B727" s="1">
@@ -15902,7 +15908,7 @@
       </c>
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A728" s="1" t="s">
+      <c r="A728" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B728" s="1">
@@ -15922,7 +15928,7 @@
       </c>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A729" s="1" t="s">
+      <c r="A729" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B729" s="1">
@@ -15942,7 +15948,7 @@
       </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A730" s="1" t="s">
+      <c r="A730" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B730" s="1">
@@ -15962,7 +15968,7 @@
       </c>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A731" s="2" t="s">
+      <c r="A731" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B731" s="2" t="s">
@@ -15982,7 +15988,7 @@
       </c>
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A732" s="1" t="s">
+      <c r="A732" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B732" s="1">
@@ -16002,7 +16008,7 @@
       </c>
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A733" s="1" t="s">
+      <c r="A733" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B733" s="1">
@@ -16022,7 +16028,7 @@
       </c>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A734" s="1" t="s">
+      <c r="A734" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B734" s="1">
@@ -16042,7 +16048,7 @@
       </c>
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A735" s="1" t="s">
+      <c r="A735" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B735" s="1">
@@ -16062,7 +16068,7 @@
       </c>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A736" s="1" t="s">
+      <c r="A736" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B736" s="1">
@@ -16082,7 +16088,7 @@
       </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A737" s="1" t="s">
+      <c r="A737" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B737" s="1">
@@ -16102,7 +16108,7 @@
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A738" s="1" t="s">
+      <c r="A738" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B738" s="1">
@@ -16122,7 +16128,7 @@
       </c>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A739" s="1" t="s">
+      <c r="A739" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B739" s="1">
@@ -16142,7 +16148,7 @@
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A740" s="1" t="s">
+      <c r="A740" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B740" s="1">
@@ -16162,7 +16168,7 @@
       </c>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A741" s="1" t="s">
+      <c r="A741" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B741" s="1">
@@ -16182,7 +16188,7 @@
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A742" s="1" t="s">
+      <c r="A742" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B742" s="1">
@@ -16202,7 +16208,7 @@
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A743" s="1" t="s">
+      <c r="A743" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B743" s="1">
@@ -16222,7 +16228,7 @@
       </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A744" s="1" t="s">
+      <c r="A744" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B744" s="1">
@@ -16242,7 +16248,7 @@
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A745" s="1" t="s">
+      <c r="A745" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B745" s="1">
@@ -16262,7 +16268,7 @@
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A746" s="1" t="s">
+      <c r="A746" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B746" s="1">
@@ -16282,7 +16288,7 @@
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A747" s="1" t="s">
+      <c r="A747" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B747" s="1">
@@ -16302,7 +16308,7 @@
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A748" s="1" t="s">
+      <c r="A748" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B748" s="1">
@@ -16322,7 +16328,7 @@
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A749" s="1" t="s">
+      <c r="A749" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B749" s="1">
@@ -16342,7 +16348,7 @@
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A750" s="1" t="s">
+      <c r="A750" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B750" s="1">
@@ -16362,7 +16368,7 @@
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A751" s="1" t="s">
+      <c r="A751" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B751" s="1">
@@ -16382,7 +16388,7 @@
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A752" s="1" t="s">
+      <c r="A752" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B752" s="1">
@@ -16402,7 +16408,7 @@
       </c>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A753" s="1" t="s">
+      <c r="A753" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B753" s="1">
@@ -16422,7 +16428,7 @@
       </c>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A754" s="1" t="s">
+      <c r="A754" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B754" s="1">
@@ -16442,7 +16448,7 @@
       </c>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A755" s="1" t="s">
+      <c r="A755" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B755" s="1">
@@ -16462,7 +16468,7 @@
       </c>
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A756" s="1" t="s">
+      <c r="A756" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B756" s="1">
@@ -16482,7 +16488,7 @@
       </c>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A757" s="1" t="s">
+      <c r="A757" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B757" s="1">
@@ -16502,7 +16508,7 @@
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A758" s="1" t="s">
+      <c r="A758" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B758" s="1">
@@ -16522,7 +16528,7 @@
       </c>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A759" s="1" t="s">
+      <c r="A759" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B759" s="1">
@@ -16542,7 +16548,7 @@
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A760" s="1" t="s">
+      <c r="A760" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B760" s="1">
@@ -16562,7 +16568,7 @@
       </c>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A761" s="1" t="s">
+      <c r="A761" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B761" s="1">
@@ -16582,7 +16588,7 @@
       </c>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A762" s="1" t="s">
+      <c r="A762" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B762" s="1">
@@ -16602,7 +16608,7 @@
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A763" s="1" t="s">
+      <c r="A763" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B763" s="1">
@@ -16622,7 +16628,7 @@
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A764" s="1" t="s">
+      <c r="A764" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B764" s="1">
@@ -16642,7 +16648,7 @@
       </c>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A765" s="1" t="s">
+      <c r="A765" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B765" s="1">
@@ -16662,7 +16668,7 @@
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A766" s="1" t="s">
+      <c r="A766" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B766" s="1">
@@ -16682,7 +16688,7 @@
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A767" s="1" t="s">
+      <c r="A767" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B767" s="1">
@@ -16702,7 +16708,7 @@
       </c>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A768" s="1" t="s">
+      <c r="A768" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B768" s="1">
@@ -16722,7 +16728,7 @@
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A769" s="1" t="s">
+      <c r="A769" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B769" s="1">
@@ -16742,7 +16748,7 @@
       </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A770" s="1" t="s">
+      <c r="A770" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B770" s="1">
@@ -16762,7 +16768,7 @@
       </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A771" s="1" t="s">
+      <c r="A771" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B771" s="1">
@@ -16782,7 +16788,7 @@
       </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A772" s="1" t="s">
+      <c r="A772" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B772" s="1">
@@ -16802,7 +16808,7 @@
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A773" s="1" t="s">
+      <c r="A773" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B773" s="1">
@@ -16822,7 +16828,7 @@
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A774" s="1" t="s">
+      <c r="A774" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B774" s="1">
@@ -16842,7 +16848,7 @@
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A775" s="1" t="s">
+      <c r="A775" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B775" s="1">
@@ -16862,7 +16868,7 @@
       </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A776" s="1" t="s">
+      <c r="A776" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B776" s="1">
@@ -16882,7 +16888,7 @@
       </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A777" s="1" t="s">
+      <c r="A777" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B777" s="1">
@@ -16902,7 +16908,7 @@
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A778" s="1" t="s">
+      <c r="A778" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B778" s="1">
@@ -16922,7 +16928,7 @@
       </c>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A779" s="1" t="s">
+      <c r="A779" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B779" s="1">
@@ -16942,7 +16948,7 @@
       </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A780" s="1" t="s">
+      <c r="A780" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B780" s="1">
@@ -16962,7 +16968,7 @@
       </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A781" s="1" t="s">
+      <c r="A781" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B781" s="1">
@@ -16982,7 +16988,7 @@
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A782" s="1" t="s">
+      <c r="A782" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B782" s="1">
@@ -17002,7 +17008,7 @@
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A783" s="1" t="s">
+      <c r="A783" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B783" s="1">
@@ -17022,7 +17028,7 @@
       </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A784" s="1" t="s">
+      <c r="A784" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B784" s="1">
@@ -17042,7 +17048,7 @@
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A785" s="1" t="s">
+      <c r="A785" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B785" s="1">
@@ -17062,7 +17068,7 @@
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A786" s="1" t="s">
+      <c r="A786" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B786" s="1">
@@ -17082,7 +17088,7 @@
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A787" s="1" t="s">
+      <c r="A787" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B787" s="1">
@@ -17102,7 +17108,7 @@
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A788" s="1" t="s">
+      <c r="A788" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B788" s="1">
@@ -17122,7 +17128,7 @@
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A789" s="1" t="s">
+      <c r="A789" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B789" s="1">
@@ -17142,7 +17148,7 @@
       </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A790" s="1" t="s">
+      <c r="A790" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B790" s="1">
@@ -17162,7 +17168,7 @@
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A791" s="1" t="s">
+      <c r="A791" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B791" s="1">
@@ -17182,7 +17188,7 @@
       </c>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A792" s="1" t="s">
+      <c r="A792" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B792" s="1">
@@ -17202,7 +17208,7 @@
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A793" s="1" t="s">
+      <c r="A793" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B793" s="1">
@@ -17222,7 +17228,7 @@
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A794" s="1" t="s">
+      <c r="A794" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B794" s="1">
@@ -17242,7 +17248,7 @@
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A795" s="1" t="s">
+      <c r="A795" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B795" s="1">
@@ -17262,7 +17268,7 @@
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A796" s="1" t="s">
+      <c r="A796" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B796" s="1">
@@ -17282,7 +17288,7 @@
       </c>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A797" s="1" t="s">
+      <c r="A797" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B797" s="1">
@@ -17302,7 +17308,7 @@
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A798" s="1" t="s">
+      <c r="A798" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B798" s="1">
@@ -17322,7 +17328,7 @@
       </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A799" s="1" t="s">
+      <c r="A799" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B799" s="1">
@@ -17342,7 +17348,7 @@
       </c>
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A800" s="1" t="s">
+      <c r="A800" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B800" s="1">
@@ -17362,7 +17368,7 @@
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A801" s="1" t="s">
+      <c r="A801" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B801" s="1">
@@ -17382,7 +17388,7 @@
       </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A802" s="1" t="s">
+      <c r="A802" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B802" s="1">
@@ -17402,7 +17408,7 @@
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A803" s="1" t="s">
+      <c r="A803" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B803" s="1">
@@ -17422,7 +17428,7 @@
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A804" s="1" t="s">
+      <c r="A804" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B804" s="1">
@@ -17442,7 +17448,7 @@
       </c>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A805" s="1" t="s">
+      <c r="A805" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B805" s="1">
@@ -17462,7 +17468,7 @@
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A806" s="1" t="s">
+      <c r="A806" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B806" s="1">
@@ -17482,7 +17488,7 @@
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A807" s="1" t="s">
+      <c r="A807" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B807" s="1">
@@ -17502,7 +17508,7 @@
       </c>
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A808" s="1" t="s">
+      <c r="A808" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B808" s="1">
@@ -17522,7 +17528,7 @@
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A809" s="1" t="s">
+      <c r="A809" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B809" s="1">
@@ -17542,7 +17548,7 @@
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A810" s="1" t="s">
+      <c r="A810" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B810" s="1">
@@ -17562,7 +17568,7 @@
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A811" s="1" t="s">
+      <c r="A811" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B811" s="1">
@@ -17582,7 +17588,7 @@
       </c>
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A812" s="1" t="s">
+      <c r="A812" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B812" s="1">
@@ -17602,7 +17608,7 @@
       </c>
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A813" s="1" t="s">
+      <c r="A813" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B813" s="1">
@@ -17622,7 +17628,7 @@
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A814" s="1" t="s">
+      <c r="A814" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B814" s="1">
@@ -17642,7 +17648,7 @@
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A815" s="1" t="s">
+      <c r="A815" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B815" s="1">
@@ -17662,7 +17668,7 @@
       </c>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A816" s="1" t="s">
+      <c r="A816" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B816" s="1">
@@ -17682,7 +17688,7 @@
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A817" s="1" t="s">
+      <c r="A817" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B817" s="1">
@@ -17702,7 +17708,7 @@
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A818" s="1" t="s">
+      <c r="A818" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B818" s="1">
@@ -17722,7 +17728,7 @@
       </c>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A819" s="1" t="s">
+      <c r="A819" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B819" s="1">
@@ -17742,7 +17748,7 @@
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A820" s="1" t="s">
+      <c r="A820" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B820" s="1">
@@ -17762,7 +17768,7 @@
       </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A821" s="1" t="s">
+      <c r="A821" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B821" s="1">
@@ -17782,7 +17788,7 @@
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A822" s="1" t="s">
+      <c r="A822" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B822" s="1">
@@ -17802,7 +17808,7 @@
       </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A823" s="1" t="s">
+      <c r="A823" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B823" s="1">
@@ -17822,7 +17828,7 @@
       </c>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A824" s="1" t="s">
+      <c r="A824" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B824" s="1">
@@ -17842,7 +17848,7 @@
       </c>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A825" s="1" t="s">
+      <c r="A825" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B825" s="1">
@@ -17862,7 +17868,7 @@
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A826" s="1" t="s">
+      <c r="A826" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B826" s="1">
@@ -17882,7 +17888,7 @@
       </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A827" s="1" t="s">
+      <c r="A827" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B827" s="1">
@@ -17902,7 +17908,7 @@
       </c>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A828" s="1" t="s">
+      <c r="A828" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B828" s="1">
@@ -17922,7 +17928,7 @@
       </c>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A829" s="1" t="s">
+      <c r="A829" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B829" s="1">
@@ -17942,7 +17948,7 @@
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A830" s="1" t="s">
+      <c r="A830" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B830" s="1">
@@ -17962,7 +17968,7 @@
       </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A831" s="1" t="s">
+      <c r="A831" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B831" s="1">
@@ -17982,7 +17988,7 @@
       </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A832" s="1" t="s">
+      <c r="A832" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B832" s="1">
@@ -18002,7 +18008,7 @@
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A833" s="1" t="s">
+      <c r="A833" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B833" s="1">
@@ -18022,7 +18028,7 @@
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A834" s="1" t="s">
+      <c r="A834" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B834" s="1">
@@ -18042,7 +18048,7 @@
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A835" s="1" t="s">
+      <c r="A835" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B835" s="1">
@@ -18062,7 +18068,7 @@
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A836" s="1" t="s">
+      <c r="A836" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B836" s="1">
@@ -18082,7 +18088,7 @@
       </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A837" s="1" t="s">
+      <c r="A837" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B837" s="1">
@@ -18102,7 +18108,7 @@
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A838" s="1" t="s">
+      <c r="A838" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B838" s="1">
@@ -18122,7 +18128,7 @@
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A839" s="1" t="s">
+      <c r="A839" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B839" s="1">
@@ -18142,7 +18148,7 @@
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A840" s="1" t="s">
+      <c r="A840" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B840" s="1">
@@ -18162,7 +18168,7 @@
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A841" s="1" t="s">
+      <c r="A841" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B841" s="1">
@@ -18182,7 +18188,7 @@
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A842" s="1" t="s">
+      <c r="A842" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B842" s="1">
@@ -18202,7 +18208,7 @@
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A843" s="1" t="s">
+      <c r="A843" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B843" s="1">
@@ -18222,7 +18228,7 @@
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A844" s="1" t="s">
+      <c r="A844" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B844" s="1">
@@ -18242,7 +18248,7 @@
       </c>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A845" s="1" t="s">
+      <c r="A845" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B845" s="1">
@@ -18262,7 +18268,7 @@
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A846" s="1" t="s">
+      <c r="A846" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B846" s="1">
@@ -18282,7 +18288,7 @@
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A847" s="1" t="s">
+      <c r="A847" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B847" s="1">
@@ -18302,7 +18308,7 @@
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A848" s="1" t="s">
+      <c r="A848" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B848" s="1">
@@ -18322,7 +18328,7 @@
       </c>
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A849" s="1" t="s">
+      <c r="A849" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B849" s="1">
@@ -18342,7 +18348,7 @@
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A850" s="1" t="s">
+      <c r="A850" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B850" s="1">
@@ -18362,7 +18368,7 @@
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A851" s="1" t="s">
+      <c r="A851" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B851" s="1">
@@ -18382,7 +18388,7 @@
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A852" s="1" t="s">
+      <c r="A852" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B852" s="1">
@@ -18402,7 +18408,7 @@
       </c>
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A853" s="1" t="s">
+      <c r="A853" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B853" s="1">
@@ -18422,7 +18428,7 @@
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A854" s="1" t="s">
+      <c r="A854" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B854" s="1">
@@ -18442,7 +18448,7 @@
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A855" s="1" t="s">
+      <c r="A855" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B855" s="1">
@@ -18462,7 +18468,7 @@
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A856" s="1" t="s">
+      <c r="A856" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B856" s="1">
@@ -18482,7 +18488,7 @@
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A857" s="1" t="s">
+      <c r="A857" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B857" s="1">
@@ -18502,7 +18508,7 @@
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A858" s="1" t="s">
+      <c r="A858" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B858" s="1">
@@ -18522,7 +18528,7 @@
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A859" s="1" t="s">
+      <c r="A859" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B859" s="1">
@@ -18542,7 +18548,7 @@
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A860" s="1" t="s">
+      <c r="A860" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B860" s="1">
@@ -18562,7 +18568,7 @@
       </c>
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A861" s="1" t="s">
+      <c r="A861" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B861" s="1">
@@ -18582,7 +18588,7 @@
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A862" s="1" t="s">
+      <c r="A862" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B862" s="1">
@@ -18602,7 +18608,7 @@
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A863" s="1" t="s">
+      <c r="A863" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B863" s="1">
@@ -18622,7 +18628,7 @@
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A864" s="1" t="s">
+      <c r="A864" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B864" s="1">
@@ -18642,7 +18648,7 @@
       </c>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A865" s="1" t="s">
+      <c r="A865" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B865" s="1">
@@ -18662,7 +18668,7 @@
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A866" s="1" t="s">
+      <c r="A866" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B866" s="1">
@@ -18682,7 +18688,7 @@
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A867" s="1" t="s">
+      <c r="A867" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B867" s="1">
@@ -18702,7 +18708,7 @@
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A868" s="1" t="s">
+      <c r="A868" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B868" s="1">
@@ -18722,7 +18728,7 @@
       </c>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A869" s="1" t="s">
+      <c r="A869" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B869" s="1">
@@ -18742,7 +18748,7 @@
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A870" s="1" t="s">
+      <c r="A870" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B870" s="1">
@@ -18762,7 +18768,7 @@
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A871" s="1" t="s">
+      <c r="A871" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B871" s="1">
@@ -18782,7 +18788,7 @@
       </c>
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A872" s="1" t="s">
+      <c r="A872" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B872" s="1">
@@ -18802,7 +18808,7 @@
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A873" s="1" t="s">
+      <c r="A873" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B873" s="1">
@@ -18822,7 +18828,7 @@
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A874" s="1" t="s">
+      <c r="A874" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B874" s="1">
@@ -18842,7 +18848,7 @@
       </c>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A875" s="1" t="s">
+      <c r="A875" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B875" s="1">
@@ -18862,7 +18868,7 @@
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A876" s="1" t="s">
+      <c r="A876" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B876" s="1">
@@ -18882,7 +18888,7 @@
       </c>
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A877" s="1" t="s">
+      <c r="A877" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B877" s="1">
@@ -18902,7 +18908,7 @@
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A878" s="1" t="s">
+      <c r="A878" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B878" s="1">
@@ -18922,7 +18928,7 @@
       </c>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A879" s="1" t="s">
+      <c r="A879" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B879" s="1">
@@ -18942,7 +18948,7 @@
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A880" s="1" t="s">
+      <c r="A880" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B880" s="1">
@@ -18962,7 +18968,7 @@
       </c>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A881" s="1" t="s">
+      <c r="A881" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B881" s="1">
@@ -18982,7 +18988,7 @@
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A882" s="1" t="s">
+      <c r="A882" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B882" s="1">
@@ -19002,7 +19008,7 @@
       </c>
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A883" s="1" t="s">
+      <c r="A883" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B883" s="1">
@@ -19022,7 +19028,7 @@
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A884" s="1" t="s">
+      <c r="A884" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B884" s="1">
@@ -19042,7 +19048,7 @@
       </c>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A885" s="1" t="s">
+      <c r="A885" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B885" s="1">
@@ -19062,7 +19068,7 @@
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A886" s="1" t="s">
+      <c r="A886" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B886" s="1">
@@ -19082,7 +19088,7 @@
       </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A887" s="1" t="s">
+      <c r="A887" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B887" s="1">
@@ -19102,7 +19108,7 @@
       </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A888" s="1" t="s">
+      <c r="A888" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B888" s="1">
@@ -19122,7 +19128,7 @@
       </c>
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A889" s="1" t="s">
+      <c r="A889" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B889" s="1">
@@ -19142,7 +19148,7 @@
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A890" s="1" t="s">
+      <c r="A890" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B890" s="1">
@@ -19162,7 +19168,7 @@
       </c>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A891" s="1" t="s">
+      <c r="A891" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B891" s="1">
@@ -19182,7 +19188,7 @@
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A892" s="1" t="s">
+      <c r="A892" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B892" s="1">
@@ -19202,7 +19208,7 @@
       </c>
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A893" s="1" t="s">
+      <c r="A893" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B893" s="1">
@@ -19222,7 +19228,7 @@
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A894" s="1" t="s">
+      <c r="A894" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B894" s="1">
@@ -19242,7 +19248,7 @@
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A895" s="1" t="s">
+      <c r="A895" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B895" s="1">
@@ -19262,7 +19268,7 @@
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A896" s="1" t="s">
+      <c r="A896" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B896" s="1">
@@ -19282,7 +19288,7 @@
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A897" s="1" t="s">
+      <c r="A897" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B897" s="1">
@@ -19302,7 +19308,7 @@
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A898" s="1" t="s">
+      <c r="A898" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B898" s="1">
@@ -19322,7 +19328,7 @@
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A899" s="1" t="s">
+      <c r="A899" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B899" s="1">
@@ -19342,7 +19348,7 @@
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A900" s="1" t="s">
+      <c r="A900" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B900" s="1">
@@ -19362,7 +19368,7 @@
       </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A901" s="1" t="s">
+      <c r="A901" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B901" s="1">
@@ -19382,7 +19388,7 @@
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A902" s="1" t="s">
+      <c r="A902" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B902" s="1">
@@ -19402,7 +19408,7 @@
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A903" s="1" t="s">
+      <c r="A903" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B903" s="1">
@@ -19422,7 +19428,7 @@
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A904" s="1" t="s">
+      <c r="A904" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B904" s="1">
@@ -19442,7 +19448,7 @@
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A905" s="1" t="s">
+      <c r="A905" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B905" s="1">
@@ -19462,7 +19468,7 @@
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A906" s="1" t="s">
+      <c r="A906" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B906" s="1">
@@ -19482,7 +19488,7 @@
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A907" s="1" t="s">
+      <c r="A907" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B907" s="1">
@@ -19502,7 +19508,7 @@
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A908" s="1" t="s">
+      <c r="A908" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B908" s="1">
@@ -19522,7 +19528,7 @@
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A909" s="1" t="s">
+      <c r="A909" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B909" s="1">
@@ -19542,7 +19548,7 @@
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A910" s="1" t="s">
+      <c r="A910" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B910" s="1">
@@ -19562,7 +19568,7 @@
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A911" s="1" t="s">
+      <c r="A911" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B911" s="1">
@@ -19582,7 +19588,7 @@
       </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A912" s="1" t="s">
+      <c r="A912" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B912" s="1">
@@ -19602,7 +19608,7 @@
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A913" s="1" t="s">
+      <c r="A913" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B913" s="1">
@@ -19622,7 +19628,7 @@
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A914" s="1" t="s">
+      <c r="A914" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B914" s="1">
@@ -19642,7 +19648,7 @@
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A915" s="1" t="s">
+      <c r="A915" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B915" s="1">
@@ -19662,7 +19668,7 @@
       </c>
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A916" s="1" t="s">
+      <c r="A916" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B916" s="1">
@@ -19682,7 +19688,7 @@
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A917" s="1" t="s">
+      <c r="A917" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B917" s="1">
@@ -19702,7 +19708,7 @@
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A918" s="1" t="s">
+      <c r="A918" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B918" s="1">
@@ -19722,7 +19728,7 @@
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A919" s="1" t="s">
+      <c r="A919" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B919" s="1">
@@ -19742,7 +19748,7 @@
       </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A920" s="1" t="s">
+      <c r="A920" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B920" s="1">
@@ -19762,7 +19768,7 @@
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A921" s="1" t="s">
+      <c r="A921" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B921" s="1">
@@ -19782,7 +19788,7 @@
       </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A922" s="1" t="s">
+      <c r="A922" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B922" s="1">
@@ -19802,7 +19808,7 @@
       </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A923" s="1" t="s">
+      <c r="A923" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B923" s="1">
@@ -19822,7 +19828,7 @@
       </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A924" s="1" t="s">
+      <c r="A924" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B924" s="1">
@@ -19842,7 +19848,7 @@
       </c>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A925" s="1" t="s">
+      <c r="A925" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B925" s="1">
@@ -19862,7 +19868,7 @@
       </c>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A926" s="1" t="s">
+      <c r="A926" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B926" s="1">
@@ -19882,7 +19888,7 @@
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A927" s="1" t="s">
+      <c r="A927" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B927" s="1">
@@ -19902,7 +19908,7 @@
       </c>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A928" s="1" t="s">
+      <c r="A928" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B928" s="1">
@@ -19922,7 +19928,7 @@
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A929" s="1" t="s">
+      <c r="A929" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B929" s="1">
@@ -19942,7 +19948,7 @@
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A930" s="1" t="s">
+      <c r="A930" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B930" s="1">
@@ -19962,7 +19968,7 @@
       </c>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A931" s="1" t="s">
+      <c r="A931" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B931" s="1">
@@ -19982,7 +19988,7 @@
       </c>
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A932" s="1" t="s">
+      <c r="A932" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B932" s="1">
@@ -20002,7 +20008,7 @@
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A933" s="1" t="s">
+      <c r="A933" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B933" s="1">
@@ -20022,7 +20028,7 @@
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A934" s="1" t="s">
+      <c r="A934" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B934" s="1">
@@ -20042,7 +20048,7 @@
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A935" s="1" t="s">
+      <c r="A935" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B935" s="1">
@@ -20062,7 +20068,7 @@
       </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A936" s="1" t="s">
+      <c r="A936" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B936" s="1">
@@ -20082,7 +20088,7 @@
       </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A937" s="1" t="s">
+      <c r="A937" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B937" s="1">
@@ -20102,7 +20108,7 @@
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A938" s="1" t="s">
+      <c r="A938" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B938" s="1">
@@ -20122,7 +20128,7 @@
       </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A939" s="1" t="s">
+      <c r="A939" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B939" s="1">
@@ -20142,7 +20148,7 @@
       </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A940" s="1" t="s">
+      <c r="A940" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B940" s="1">
@@ -20162,7 +20168,7 @@
       </c>
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A941" s="1" t="s">
+      <c r="A941" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B941" s="1">
@@ -20182,7 +20188,7 @@
       </c>
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A942" s="1" t="s">
+      <c r="A942" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B942" s="1">
@@ -20202,7 +20208,7 @@
       </c>
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A943" s="1" t="s">
+      <c r="A943" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B943" s="1">
@@ -20222,7 +20228,7 @@
       </c>
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A944" s="1" t="s">
+      <c r="A944" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B944" s="1">
@@ -20242,7 +20248,7 @@
       </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A945" s="1" t="s">
+      <c r="A945" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B945" s="1">
@@ -20262,7 +20268,7 @@
       </c>
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A946" s="1" t="s">
+      <c r="A946" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B946" s="1">
@@ -20282,7 +20288,7 @@
       </c>
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A947" s="1" t="s">
+      <c r="A947" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B947" s="1">
@@ -20302,7 +20308,7 @@
       </c>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A948" s="1" t="s">
+      <c r="A948" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B948" s="1">
@@ -20322,7 +20328,7 @@
       </c>
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A949" s="1" t="s">
+      <c r="A949" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B949" s="1">
@@ -20342,7 +20348,7 @@
       </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A950" s="1" t="s">
+      <c r="A950" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B950" s="1">
@@ -20362,7 +20368,7 @@
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A951" s="1" t="s">
+      <c r="A951" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B951" s="1">
@@ -20382,7 +20388,7 @@
       </c>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A952" s="1" t="s">
+      <c r="A952" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B952" s="1">
@@ -20402,7 +20408,7 @@
       </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A953" s="1" t="s">
+      <c r="A953" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B953" s="1">
@@ -20422,7 +20428,7 @@
       </c>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A954" s="1" t="s">
+      <c r="A954" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B954" s="1">
@@ -20442,7 +20448,7 @@
       </c>
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A955" s="1" t="s">
+      <c r="A955" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B955" s="1">
@@ -20462,7 +20468,7 @@
       </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A956" s="1" t="s">
+      <c r="A956" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B956" s="1">
@@ -20482,7 +20488,7 @@
       </c>
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A957" s="1" t="s">
+      <c r="A957" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B957" s="1">
@@ -20502,7 +20508,7 @@
       </c>
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A958" s="1" t="s">
+      <c r="A958" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B958" s="1">
@@ -20522,7 +20528,7 @@
       </c>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A959" s="1" t="s">
+      <c r="A959" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B959" s="1">
@@ -20542,7 +20548,7 @@
       </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A960" s="1" t="s">
+      <c r="A960" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B960" s="1">
@@ -20562,7 +20568,7 @@
       </c>
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A961" s="1" t="s">
+      <c r="A961" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B961" s="1">
@@ -20582,7 +20588,7 @@
       </c>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A962" s="1" t="s">
+      <c r="A962" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B962" s="1">
@@ -20602,7 +20608,7 @@
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A963" s="1" t="s">
+      <c r="A963" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B963" s="1">
@@ -20622,7 +20628,7 @@
       </c>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A964" s="1" t="s">
+      <c r="A964" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B964" s="1">
@@ -20642,7 +20648,7 @@
       </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A965" s="1" t="s">
+      <c r="A965" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B965" s="1">
@@ -20662,7 +20668,7 @@
       </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A966" s="1" t="s">
+      <c r="A966" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B966" s="1">
@@ -20682,7 +20688,7 @@
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A967" s="1" t="s">
+      <c r="A967" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B967" s="1">
@@ -20702,7 +20708,7 @@
       </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A968" s="1" t="s">
+      <c r="A968" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B968" s="1">
@@ -20722,7 +20728,7 @@
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A969" s="1" t="s">
+      <c r="A969" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B969" s="1">
@@ -20742,7 +20748,7 @@
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A970" s="1" t="s">
+      <c r="A970" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B970" s="1">
@@ -20762,7 +20768,7 @@
       </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A971" s="1" t="s">
+      <c r="A971" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B971" s="1">
@@ -20782,7 +20788,7 @@
       </c>
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A972" s="1" t="s">
+      <c r="A972" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B972" s="1">
@@ -20802,7 +20808,7 @@
       </c>
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A973" s="1" t="s">
+      <c r="A973" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B973" s="1">
@@ -20822,7 +20828,7 @@
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A974" s="1" t="s">
+      <c r="A974" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B974" s="1">
